--- a/PhysField3D/Indexes.xlsx
+++ b/PhysField3D/Indexes.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! MyProjects\PhysField3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\MathModAndPP\PhysField3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8455A2-54C0-4831-9A53-EF441A95E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Nbx">Лист1!$Z$23</definedName>
+    <definedName name="Nby">Лист1!$Z$24</definedName>
+    <definedName name="Nbz">Лист1!$Z$25</definedName>
+    <definedName name="Nnbx">Лист1!$Z$26</definedName>
+    <definedName name="Nnby">Лист1!$Z$27</definedName>
+    <definedName name="Nnbz">Лист1!$Z$28</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +40,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Владимир Литвинов</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Блок (0,0,0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Блок (0,0,0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Блок (0,0,0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Блок (0,0,0)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>z</t>
   </si>
@@ -57,9 +130,6 @@
     <t>i=2</t>
   </si>
   <si>
-    <t>Глобальные индексы</t>
-  </si>
-  <si>
     <t>Индексы сетки</t>
   </si>
   <si>
@@ -71,12 +141,132 @@
   <si>
     <t>j</t>
   </si>
+  <si>
+    <t>Индексы блоков</t>
+  </si>
+  <si>
+    <t>gbInd</t>
+  </si>
+  <si>
+    <t>ib</t>
+  </si>
+  <si>
+    <t>jb</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>Блок (0,0,0)</t>
+  </si>
+  <si>
+    <t>Блок (0,0,1)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ось</t>
+  </si>
+  <si>
+    <t>сч</t>
+  </si>
+  <si>
+    <t>Блок (0,0,2)</t>
+  </si>
+  <si>
+    <t>Глобальные индексы массива data</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>iloc</t>
+  </si>
+  <si>
+    <t>jloc</t>
+  </si>
+  <si>
+    <t>kloc</t>
+  </si>
+  <si>
+    <t>Индексы внутри блока (локальные индексы)</t>
+  </si>
+  <si>
+    <t>ib=0</t>
+  </si>
+  <si>
+    <t>kb\jb</t>
+  </si>
+  <si>
+    <t>ib=1</t>
+  </si>
+  <si>
+    <t>Блок (1,0,0)</t>
+  </si>
+  <si>
+    <t>Блок (1,0,1)</t>
+  </si>
+  <si>
+    <t>Блок (1,0,2)</t>
+  </si>
+  <si>
+    <t>Блок (0,1,0)</t>
+  </si>
+  <si>
+    <t>Блок (0,1,1)</t>
+  </si>
+  <si>
+    <t>Блок (0,1,2)</t>
+  </si>
+  <si>
+    <t>Блок (1,1,0)</t>
+  </si>
+  <si>
+    <t>Блок (1,1,1)</t>
+  </si>
+  <si>
+    <t>Блок (1,1,2)</t>
+  </si>
+  <si>
+    <t>i=3</t>
+  </si>
+  <si>
+    <t>Nbx</t>
+  </si>
+  <si>
+    <t>Nby</t>
+  </si>
+  <si>
+    <t>Nbz</t>
+  </si>
+  <si>
+    <t>Nnbx</t>
+  </si>
+  <si>
+    <t>Nnby</t>
+  </si>
+  <si>
+    <t>Nnbz</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Ny</t>
+  </si>
+  <si>
+    <t>Nz</t>
+  </si>
+  <si>
+    <t>Nzy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +291,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -183,17 +380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -229,17 +415,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -305,11 +480,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -328,9 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,9 +591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,17 +605,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,13 +934,16 @@
     <col min="12" max="12" width="4.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" customWidth="1"/>
     <col min="14" max="14" width="4.5703125" customWidth="1"/>
-    <col min="15" max="23" width="4.7109375" customWidth="1"/>
+    <col min="15" max="17" width="4.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="23" width="4.7109375" customWidth="1"/>
     <col min="24" max="24" width="6.140625" customWidth="1"/>
     <col min="25" max="25" width="7.140625" customWidth="1"/>
     <col min="26" max="73" width="4.140625" style="6" customWidth="1"/>
+    <col min="74" max="132" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,14 +958,15 @@
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
+      <c r="BV1" s="29"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,26 +999,23 @@
       </c>
       <c r="P2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
+      <c r="T2" s="1"/>
       <c r="U2" s="1">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="Z2" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="BV2" s="30"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -777,179 +1044,421 @@
         <v>0</v>
       </c>
       <c r="M3" s="3">
+        <f>L4+1</f>
         <v>2</v>
       </c>
       <c r="N3" s="2">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N4+1</f>
+        <v>26</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="18">
+        <v>3</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="17"/>
+      <c r="Y3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="25">
+        <f>Z10*(Nnbx*Nnby*Nnbz)+Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="26">
+        <f>AA10*(Nnbx*Nnby*Nnbz)+AA18</f>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="26">
+        <f>AB10*(Nnbx*Nnby*Nnbz)+AB18</f>
+        <v>2</v>
+      </c>
+      <c r="AC3" s="26">
+        <f>AC10*(Nnbx*Nnby*Nnbz)+AC18</f>
+        <v>3</v>
+      </c>
+      <c r="AD3" s="26">
+        <f>AD10*(Nnbx*Nnby*Nnbz)+AD18</f>
+        <v>4</v>
+      </c>
+      <c r="AE3" s="26">
+        <f>AE10*(Nnbx*Nnby*Nnbz)+AE18</f>
+        <v>5</v>
+      </c>
+      <c r="AF3" s="26">
+        <f>AF10*(Nnbx*Nnby*Nnbz)+AF18</f>
+        <v>6</v>
+      </c>
+      <c r="AG3" s="27">
+        <f>AG10*(Nnbx*Nnby*Nnbz)+AG18</f>
+        <v>7</v>
+      </c>
+      <c r="AH3" s="25">
+        <f>AH10*(Nnbx*Nnby*Nnbz)+AH18</f>
+        <v>8</v>
+      </c>
+      <c r="AI3" s="26">
+        <f>AI10*(Nnbx*Nnby*Nnbz)+AI18</f>
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="26">
+        <f>AJ10*(Nnbx*Nnby*Nnbz)+AJ18</f>
+        <v>10</v>
+      </c>
+      <c r="AK3" s="26">
+        <f>AK10*(Nnbx*Nnby*Nnbz)+AK18</f>
+        <v>11</v>
+      </c>
+      <c r="AL3" s="26">
+        <f>AL10*(Nnbx*Nnby*Nnbz)+AL18</f>
         <v>12</v>
       </c>
-      <c r="O3" s="3">
+      <c r="AM3" s="26">
+        <f>AM10*(Nnbx*Nnby*Nnbz)+AM18</f>
+        <v>13</v>
+      </c>
+      <c r="AN3" s="26">
+        <f>AN10*(Nnbx*Nnby*Nnbz)+AN18</f>
         <v>14</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="22">
-        <v>0</v>
-      </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="22">
-        <v>3</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="21"/>
-      <c r="Y3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="6">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>11</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="6">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>14</v>
-      </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="27">
+        <f>AO10*(Nnbx*Nnby*Nnbz)+AO18</f>
         <v>15</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="AP3" s="25">
+        <f>AP10*(Nnbx*Nnby*Nnbz)+AP18</f>
         <v>16</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ3" s="26">
+        <f>AQ10*(Nnbx*Nnby*Nnbz)+AQ18</f>
         <v>17</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="26">
+        <f>AR10*(Nnbx*Nnby*Nnbz)+AR18</f>
         <v>18</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="26">
+        <f>AS10*(Nnbx*Nnby*Nnbz)+AS18</f>
         <v>19</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="26">
+        <f>AT10*(Nnbx*Nnby*Nnbz)+AT18</f>
         <v>20</v>
       </c>
-      <c r="AU3" s="6">
+      <c r="AU3" s="26">
+        <f>AU10*(Nnbx*Nnby*Nnbz)+AU18</f>
         <v>21</v>
       </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="26">
+        <f>AV10*(Nnbx*Nnby*Nnbz)+AV18</f>
         <v>22</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AW3" s="27">
+        <f>AW10*(Nnbx*Nnby*Nnbz)+AW18</f>
         <v>23</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX3" s="25">
+        <f>AX10*(Nnbx*Nnby*Nnbz)+AX18</f>
         <v>24</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="AY3" s="26">
+        <f>AY10*(Nnbx*Nnby*Nnbz)+AY18</f>
         <v>25</v>
       </c>
-      <c r="AZ3" s="6">
+      <c r="AZ3" s="26">
+        <f>AZ10*(Nnbx*Nnby*Nnbz)+AZ18</f>
         <v>26</v>
       </c>
-      <c r="BA3" s="6">
+      <c r="BA3" s="26">
+        <f>BA10*(Nnbx*Nnby*Nnbz)+BA18</f>
         <v>27</v>
       </c>
-      <c r="BB3" s="6">
+      <c r="BB3" s="26">
+        <f>BB10*(Nnbx*Nnby*Nnbz)+BB18</f>
         <v>28</v>
       </c>
-      <c r="BC3" s="6">
+      <c r="BC3" s="26">
+        <f>BC10*(Nnbx*Nnby*Nnbz)+BC18</f>
         <v>29</v>
       </c>
-      <c r="BD3" s="6">
+      <c r="BD3" s="26">
+        <f>BD10*(Nnbx*Nnby*Nnbz)+BD18</f>
         <v>30</v>
       </c>
-      <c r="BE3" s="6">
+      <c r="BE3" s="27">
+        <f>BE10*(Nnbx*Nnby*Nnbz)+BE18</f>
         <v>31</v>
       </c>
-      <c r="BF3" s="6">
+      <c r="BF3" s="25">
+        <f>BF10*(Nnbx*Nnby*Nnbz)+BF18</f>
         <v>32</v>
       </c>
-      <c r="BG3" s="6">
+      <c r="BG3" s="26">
+        <f>BG10*(Nnbx*Nnby*Nnbz)+BG18</f>
         <v>33</v>
       </c>
-      <c r="BH3" s="6">
+      <c r="BH3" s="26">
+        <f>BH10*(Nnbx*Nnby*Nnbz)+BH18</f>
         <v>34</v>
       </c>
-      <c r="BI3" s="6">
+      <c r="BI3" s="26">
+        <f>BI10*(Nnbx*Nnby*Nnbz)+BI18</f>
         <v>35</v>
       </c>
-      <c r="BJ3" s="6">
+      <c r="BJ3" s="26">
+        <f>BJ10*(Nnbx*Nnby*Nnbz)+BJ18</f>
         <v>36</v>
       </c>
-      <c r="BK3" s="6">
+      <c r="BK3" s="26">
+        <f>BK10*(Nnbx*Nnby*Nnbz)+BK18</f>
         <v>37</v>
       </c>
-      <c r="BL3" s="6">
+      <c r="BL3" s="26">
+        <f>BL10*(Nnbx*Nnby*Nnbz)+BL18</f>
         <v>38</v>
       </c>
-      <c r="BM3" s="6">
+      <c r="BM3" s="27">
+        <f>BM10*(Nnbx*Nnby*Nnbz)+BM18</f>
         <v>39</v>
       </c>
-      <c r="BN3" s="6">
+      <c r="BN3" s="25">
+        <f>BN10*(Nnbx*Nnby*Nnbz)+BN18</f>
         <v>40</v>
       </c>
-      <c r="BO3" s="6">
+      <c r="BO3" s="26">
+        <f>BO10*(Nnbx*Nnby*Nnbz)+BO18</f>
         <v>41</v>
       </c>
-      <c r="BP3" s="6">
+      <c r="BP3" s="26">
+        <f>BP10*(Nnbx*Nnby*Nnbz)+BP18</f>
         <v>42</v>
       </c>
-      <c r="BQ3" s="6">
+      <c r="BQ3" s="26">
+        <f>BQ10*(Nnbx*Nnby*Nnbz)+BQ18</f>
         <v>43</v>
       </c>
-      <c r="BR3" s="6">
+      <c r="BR3" s="26">
+        <f>BR10*(Nnbx*Nnby*Nnbz)+BR18</f>
         <v>44</v>
       </c>
-      <c r="BS3" s="6">
+      <c r="BS3" s="26">
+        <f>BS10*(Nnbx*Nnby*Nnbz)+BS18</f>
         <v>45</v>
       </c>
-      <c r="BT3" s="6">
+      <c r="BT3" s="26">
+        <f>BT10*(Nnbx*Nnby*Nnbz)+BT18</f>
         <v>46</v>
       </c>
-      <c r="BU3" s="6">
+      <c r="BU3" s="27">
+        <f>BU10*(Nnbx*Nnby*Nnbz)+BU18</f>
         <v>47</v>
       </c>
+      <c r="BV3" s="25">
+        <f>BV10*(Nnbx*Nnby*Nnbz)+BV18</f>
+        <v>48</v>
+      </c>
+      <c r="BW3" s="26">
+        <f>BW10*(Nnbx*Nnby*Nnbz)+BW18</f>
+        <v>49</v>
+      </c>
+      <c r="BX3" s="26">
+        <f>BX10*(Nnbx*Nnby*Nnbz)+BX18</f>
+        <v>50</v>
+      </c>
+      <c r="BY3" s="26">
+        <f>BY10*(Nnbx*Nnby*Nnbz)+BY18</f>
+        <v>51</v>
+      </c>
+      <c r="BZ3" s="26">
+        <f>BZ10*(Nnbx*Nnby*Nnbz)+BZ18</f>
+        <v>52</v>
+      </c>
+      <c r="CA3" s="26">
+        <f>CA10*(Nnbx*Nnby*Nnbz)+CA18</f>
+        <v>53</v>
+      </c>
+      <c r="CB3" s="26">
+        <f>CB10*(Nnbx*Nnby*Nnbz)+CB18</f>
+        <v>54</v>
+      </c>
+      <c r="CC3" s="27">
+        <f>CC10*(Nnbx*Nnby*Nnbz)+CC18</f>
+        <v>55</v>
+      </c>
+      <c r="CD3" s="25">
+        <f>CD10*(Nnbx*Nnby*Nnbz)+CD18</f>
+        <v>56</v>
+      </c>
+      <c r="CE3" s="26">
+        <f>CE10*(Nnbx*Nnby*Nnbz)+CE18</f>
+        <v>57</v>
+      </c>
+      <c r="CF3" s="26">
+        <f>CF10*(Nnbx*Nnby*Nnbz)+CF18</f>
+        <v>58</v>
+      </c>
+      <c r="CG3" s="26">
+        <f>CG10*(Nnbx*Nnby*Nnbz)+CG18</f>
+        <v>59</v>
+      </c>
+      <c r="CH3" s="26">
+        <f>CH10*(Nnbx*Nnby*Nnbz)+CH18</f>
+        <v>60</v>
+      </c>
+      <c r="CI3" s="26">
+        <f>CI10*(Nnbx*Nnby*Nnbz)+CI18</f>
+        <v>61</v>
+      </c>
+      <c r="CJ3" s="26">
+        <f>CJ10*(Nnbx*Nnby*Nnbz)+CJ18</f>
+        <v>62</v>
+      </c>
+      <c r="CK3" s="27">
+        <f>CK10*(Nnbx*Nnby*Nnbz)+CK18</f>
+        <v>63</v>
+      </c>
+      <c r="CL3" s="25">
+        <f>CL10*(Nnbx*Nnby*Nnbz)+CL18</f>
+        <v>64</v>
+      </c>
+      <c r="CM3" s="26">
+        <f>CM10*(Nnbx*Nnby*Nnbz)+CM18</f>
+        <v>65</v>
+      </c>
+      <c r="CN3" s="26">
+        <f>CN10*(Nnbx*Nnby*Nnbz)+CN18</f>
+        <v>66</v>
+      </c>
+      <c r="CO3" s="26">
+        <f>CO10*(Nnbx*Nnby*Nnbz)+CO18</f>
+        <v>67</v>
+      </c>
+      <c r="CP3" s="26">
+        <f>CP10*(Nnbx*Nnby*Nnbz)+CP18</f>
+        <v>68</v>
+      </c>
+      <c r="CQ3" s="26">
+        <f>CQ10*(Nnbx*Nnby*Nnbz)+CQ18</f>
+        <v>69</v>
+      </c>
+      <c r="CR3" s="26">
+        <f>CR10*(Nnbx*Nnby*Nnbz)+CR18</f>
+        <v>70</v>
+      </c>
+      <c r="CS3" s="27">
+        <f>CS10*(Nnbx*Nnby*Nnbz)+CS18</f>
+        <v>71</v>
+      </c>
+      <c r="CT3" s="25">
+        <f>CT10*(Nnbx*Nnby*Nnbz)+CT18</f>
+        <v>72</v>
+      </c>
+      <c r="CU3" s="26">
+        <f>CU10*(Nnbx*Nnby*Nnbz)+CU18</f>
+        <v>73</v>
+      </c>
+      <c r="CV3" s="26">
+        <f>CV10*(Nnbx*Nnby*Nnbz)+CV18</f>
+        <v>74</v>
+      </c>
+      <c r="CW3" s="26">
+        <f>CW10*(Nnbx*Nnby*Nnbz)+CW18</f>
+        <v>75</v>
+      </c>
+      <c r="CX3" s="26">
+        <f>CX10*(Nnbx*Nnby*Nnbz)+CX18</f>
+        <v>76</v>
+      </c>
+      <c r="CY3" s="26">
+        <f>CY10*(Nnbx*Nnby*Nnbz)+CY18</f>
+        <v>77</v>
+      </c>
+      <c r="CZ3" s="26">
+        <f>CZ10*(Nnbx*Nnby*Nnbz)+CZ18</f>
+        <v>78</v>
+      </c>
+      <c r="DA3" s="27">
+        <f>DA10*(Nnbx*Nnby*Nnbz)+DA18</f>
+        <v>79</v>
+      </c>
+      <c r="DB3" s="25">
+        <f>DB10*(Nnbx*Nnby*Nnbz)+DB18</f>
+        <v>80</v>
+      </c>
+      <c r="DC3" s="26">
+        <f>DC10*(Nnbx*Nnby*Nnbz)+DC18</f>
+        <v>81</v>
+      </c>
+      <c r="DD3" s="26">
+        <f>DD10*(Nnbx*Nnby*Nnbz)+DD18</f>
+        <v>82</v>
+      </c>
+      <c r="DE3" s="26">
+        <f>DE10*(Nnbx*Nnby*Nnbz)+DE18</f>
+        <v>83</v>
+      </c>
+      <c r="DF3" s="26">
+        <f>DF10*(Nnbx*Nnby*Nnbz)+DF18</f>
+        <v>84</v>
+      </c>
+      <c r="DG3" s="26">
+        <f>DG10*(Nnbx*Nnby*Nnbz)+DG18</f>
+        <v>85</v>
+      </c>
+      <c r="DH3" s="26">
+        <f>DH10*(Nnbx*Nnby*Nnbz)+DH18</f>
+        <v>86</v>
+      </c>
+      <c r="DI3" s="27">
+        <f>DI10*(Nnbx*Nnby*Nnbz)+DI18</f>
+        <v>87</v>
+      </c>
+      <c r="DJ3" s="25">
+        <f>DJ10*(Nnbx*Nnby*Nnbz)+DJ18</f>
+        <v>88</v>
+      </c>
+      <c r="DK3" s="26">
+        <f>DK10*(Nnbx*Nnby*Nnbz)+DK18</f>
+        <v>89</v>
+      </c>
+      <c r="DL3" s="26">
+        <f>DL10*(Nnbx*Nnby*Nnbz)+DL18</f>
+        <v>90</v>
+      </c>
+      <c r="DM3" s="26">
+        <f>DM10*(Nnbx*Nnby*Nnbz)+DM18</f>
+        <v>91</v>
+      </c>
+      <c r="DN3" s="26">
+        <f>DN10*(Nnbx*Nnby*Nnbz)+DN18</f>
+        <v>92</v>
+      </c>
+      <c r="DO3" s="26">
+        <f>DO10*(Nnbx*Nnby*Nnbz)+DO18</f>
+        <v>93</v>
+      </c>
+      <c r="DP3" s="26">
+        <f>DP10*(Nnbx*Nnby*Nnbz)+DP18</f>
+        <v>94</v>
+      </c>
+      <c r="DQ3" s="27">
+        <f>DQ10*(Nnbx*Nnby*Nnbz)+DQ18</f>
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -969,39 +1478,40 @@
         <v>1</v>
       </c>
       <c r="L4" s="4">
+        <f>L3+1</f>
         <v>1</v>
       </c>
       <c r="M4" s="5">
+        <f t="shared" ref="M4:O4" si="0">M3+1</f>
         <v>3</v>
       </c>
       <c r="N4" s="4">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="O4" s="5">
-        <v>15</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
-      <c r="U4" s="24">
-        <v>0</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="21"/>
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="17"/>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>20</v>
+      </c>
       <c r="Z4" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BV4" s="31"/>
     </row>
-    <row r="5" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1024,176 +1534,325 @@
         <v>8</v>
       </c>
       <c r="M5" s="3">
+        <f>L6+1</f>
         <v>10</v>
       </c>
       <c r="N5" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3">
+        <f>N6+1</f>
+        <v>34</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="18">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="18">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="17"/>
+      <c r="X5" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="22">
-        <v>1</v>
-      </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="22">
-        <v>4</v>
-      </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="21"/>
       <c r="Y5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="20">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CC5" s="10">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CE5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CK5" s="10">
+        <v>3</v>
+      </c>
+      <c r="CL5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS5" s="10">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CU5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CV5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CW5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CX5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CY5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CZ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DA5" s="10">
+        <v>3</v>
+      </c>
+      <c r="DB5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DC5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DD5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DE5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DF5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DI5" s="10">
+        <v>3</v>
+      </c>
+      <c r="DJ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DK5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DM5" s="9">
+        <v>2</v>
+      </c>
+      <c r="DN5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DO5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ5" s="10">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1213,183 +1872,324 @@
         <v>3</v>
       </c>
       <c r="L6" s="4">
+        <f>L5+1</f>
         <v>9</v>
       </c>
       <c r="M6" s="5">
+        <f t="shared" ref="M6:O6" si="1">M5+1</f>
         <v>11</v>
       </c>
       <c r="N6" s="4">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="O6" s="5">
-        <v>19</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="R6" s="1">
-        <v>3</v>
-      </c>
-      <c r="S6" s="24">
-        <v>1</v>
-      </c>
-      <c r="T6" s="25">
-        <v>0</v>
-      </c>
-      <c r="U6" s="24">
-        <v>1</v>
-      </c>
-      <c r="V6" s="25">
-        <v>1</v>
-      </c>
-      <c r="W6" s="21"/>
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="17"/>
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
       <c r="Y6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AP6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AT6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="12">
-        <v>3</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="11">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="12">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="8">
-        <v>2</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>3</v>
-      </c>
-      <c r="BM6" s="10">
-        <v>3</v>
-      </c>
-      <c r="BN6" s="11">
-        <v>2</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="BQ6" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR6" s="11">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="9">
-        <v>3</v>
-      </c>
-      <c r="BU6" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="22">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE6" s="24">
+        <v>3</v>
+      </c>
+      <c r="BF6" s="22">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM6" s="24">
+        <v>3</v>
+      </c>
+      <c r="BN6" s="22">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BR6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="23">
+        <v>3</v>
+      </c>
+      <c r="BU6" s="24">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="23">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="24">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="24">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="22">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="23">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="23">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="24">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="22">
+        <v>2</v>
+      </c>
+      <c r="CU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV6" s="23">
+        <v>3</v>
+      </c>
+      <c r="CW6" s="23">
+        <v>3</v>
+      </c>
+      <c r="CX6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CY6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DA6" s="24">
+        <v>3</v>
+      </c>
+      <c r="DB6" s="22">
+        <v>2</v>
+      </c>
+      <c r="DC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DE6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI6" s="24">
+        <v>3</v>
+      </c>
+      <c r="DJ6" s="22">
+        <v>2</v>
+      </c>
+      <c r="DK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DM6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DN6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP6" s="23">
+        <v>3</v>
+      </c>
+      <c r="DQ6" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1412,210 +2212,354 @@
         <v>16</v>
       </c>
       <c r="M7" s="3">
+        <f>L8+1</f>
         <v>18</v>
       </c>
       <c r="N7" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O7" s="3">
-        <v>22</v>
-      </c>
-      <c r="P7" s="21"/>
+        <f>N8+1</f>
+        <v>42</v>
+      </c>
+      <c r="P7" s="17"/>
       <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="18">
+        <v>2</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="18">
+        <v>5</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="17"/>
+      <c r="X7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="11">
         <v>4</v>
       </c>
-      <c r="S7" s="22">
-        <v>2</v>
-      </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="22">
+      <c r="AQ7" s="12">
         <v>5</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="21"/>
-      <c r="Y7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="15">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="16">
+      <c r="AR7" s="12">
         <v>4</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AS7" s="12">
         <v>5</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AT7" s="12">
         <v>4</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AU7" s="12">
         <v>5</v>
       </c>
-      <c r="AL7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="16">
-        <v>2</v>
-      </c>
-      <c r="AQ7" s="14">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS7" s="15">
-        <v>3</v>
-      </c>
-      <c r="AT7" s="16">
+      <c r="AV7" s="12">
         <v>4</v>
       </c>
-      <c r="AU7" s="14">
+      <c r="AW7" s="13">
         <v>5</v>
       </c>
-      <c r="AV7" s="14">
+      <c r="AX7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="11">
+        <v>2</v>
+      </c>
+      <c r="BG7" s="12">
+        <v>3</v>
+      </c>
+      <c r="BH7" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI7" s="12">
+        <v>3</v>
+      </c>
+      <c r="BJ7" s="12">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="12">
+        <v>3</v>
+      </c>
+      <c r="BL7" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="13">
+        <v>3</v>
+      </c>
+      <c r="BN7" s="11">
         <v>4</v>
       </c>
-      <c r="AW7" s="17">
+      <c r="BO7" s="12">
         <v>5</v>
       </c>
-      <c r="AX7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="16">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="14">
-        <v>3</v>
-      </c>
-      <c r="BD7" s="14">
-        <v>2</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>3</v>
-      </c>
-      <c r="BF7" s="16">
+      <c r="BP7" s="12">
         <v>4</v>
       </c>
-      <c r="BG7" s="14">
+      <c r="BQ7" s="12">
         <v>5</v>
       </c>
-      <c r="BH7" s="14">
+      <c r="BR7" s="12">
         <v>4</v>
       </c>
-      <c r="BI7" s="17">
+      <c r="BS7" s="12">
         <v>5</v>
       </c>
-      <c r="BJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="14">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="16">
-        <v>2</v>
-      </c>
-      <c r="BO7" s="14">
-        <v>3</v>
-      </c>
-      <c r="BP7" s="14">
-        <v>2</v>
-      </c>
-      <c r="BQ7" s="15">
-        <v>3</v>
-      </c>
-      <c r="BR7" s="16">
+      <c r="BT7" s="12">
         <v>4</v>
       </c>
-      <c r="BS7" s="14">
+      <c r="BU7" s="13">
         <v>5</v>
       </c>
-      <c r="BT7" s="14">
+      <c r="BV7" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="12">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="13">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="11">
+        <v>2</v>
+      </c>
+      <c r="CE7" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF7" s="12">
+        <v>2</v>
+      </c>
+      <c r="CG7" s="12">
+        <v>3</v>
+      </c>
+      <c r="CH7" s="12">
+        <v>2</v>
+      </c>
+      <c r="CI7" s="12">
+        <v>3</v>
+      </c>
+      <c r="CJ7" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK7" s="13">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="11">
         <v>4</v>
       </c>
-      <c r="BU7" s="17">
+      <c r="CM7" s="12">
         <v>5</v>
       </c>
+      <c r="CN7" s="12">
+        <v>4</v>
+      </c>
+      <c r="CO7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CP7" s="12">
+        <v>4</v>
+      </c>
+      <c r="CQ7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CR7" s="12">
+        <v>4</v>
+      </c>
+      <c r="CS7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT7" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="12">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="12">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="13">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="11">
+        <v>2</v>
+      </c>
+      <c r="DC7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DD7" s="12">
+        <v>2</v>
+      </c>
+      <c r="DE7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DF7" s="12">
+        <v>2</v>
+      </c>
+      <c r="DG7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DH7" s="12">
+        <v>2</v>
+      </c>
+      <c r="DI7" s="13">
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="11">
+        <v>4</v>
+      </c>
+      <c r="DK7" s="12">
+        <v>5</v>
+      </c>
+      <c r="DL7" s="12">
+        <v>4</v>
+      </c>
+      <c r="DM7" s="12">
+        <v>5</v>
+      </c>
+      <c r="DN7" s="12">
+        <v>4</v>
+      </c>
+      <c r="DO7" s="12">
+        <v>5</v>
+      </c>
+      <c r="DP7" s="12">
+        <v>4</v>
+      </c>
+      <c r="DQ7" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
       <c r="K8" s="1">
         <v>5</v>
       </c>
       <c r="L8" s="4">
+        <f>L7+1</f>
         <v>17</v>
       </c>
       <c r="M8" s="5">
+        <f t="shared" ref="M8:O8" si="2">M7+1</f>
         <v>19</v>
       </c>
       <c r="N8" s="4">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="O8" s="5">
-        <v>23</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4">
-        <v>2</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
-        <v>2</v>
-      </c>
-      <c r="V8" s="25">
-        <v>1</v>
-      </c>
-      <c r="W8" s="21"/>
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="17"/>
+      <c r="BV8" s="29"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1648,8 +2592,12 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="Z9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV9" s="29"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -1673,14 +2621,401 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R10" s="1"/>
       <c r="T10" t="s">
         <v>1</v>
       </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>Z13+Z12*Nbz+Z11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>AA13+AA12*Nbz+AA11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>AB13+AB12*Nbz+AB11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <f>AC13+AC12*Nbz+AC11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <f>AD13+AD12*Nbz+AD11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="15">
+        <f>AE13+AE12*Nbz+AE11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15">
+        <f>AF13+AF12*Nbz+AF11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="15">
+        <f>AG13+AG12*Nbz+AG11*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <f>AH13+AH12*Nbz+AH11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="15">
+        <f>AI13+AI12*Nbz+AI11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="15">
+        <f>AJ13+AJ12*Nbz+AJ11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="15">
+        <f>AK13+AK12*Nbz+AK11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="15">
+        <f>AL13+AL12*Nbz+AL11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="15">
+        <f>AM13+AM12*Nbz+AM11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="15">
+        <f>AN13+AN12*Nbz+AN11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="16">
+        <f>AO13+AO12*Nbz+AO11*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AP10" s="14">
+        <f>AP13+AP12*Nbz+AP11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="15">
+        <f>AQ13+AQ12*Nbz+AQ11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AR10" s="15">
+        <f>AR13+AR12*Nbz+AR11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AS10" s="15">
+        <f>AS13+AS12*Nbz+AS11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AT10" s="15">
+        <f>AT13+AT12*Nbz+AT11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AU10" s="15">
+        <f>AU13+AU12*Nbz+AU11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AV10" s="15">
+        <f>AV13+AV12*Nbz+AV11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AW10" s="16">
+        <f>AW13+AW12*Nbz+AW11*Nby*Nbz</f>
+        <v>2</v>
+      </c>
+      <c r="AX10" s="14">
+        <f>AX13+AX12*Nbz+AX11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="AY10" s="15">
+        <f>AY13+AY12*Nbz+AY11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="AZ10" s="15">
+        <f>AZ13+AZ12*Nbz+AZ11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BA10" s="15">
+        <f>BA13+BA12*Nbz+BA11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BB10" s="15">
+        <f>BB13+BB12*Nbz+BB11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BC10" s="15">
+        <f>BC13+BC12*Nbz+BC11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BD10" s="15">
+        <f>BD13+BD12*Nbz+BD11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BE10" s="16">
+        <f>BE13+BE12*Nbz+BE11*Nby*Nbz</f>
+        <v>3</v>
+      </c>
+      <c r="BF10" s="14">
+        <f>BF13+BF12*Nbz+BF11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BG10" s="15">
+        <f>BG13+BG12*Nbz+BG11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BH10" s="15">
+        <f>BH13+BH12*Nbz+BH11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BI10" s="15">
+        <f>BI13+BI12*Nbz+BI11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BJ10" s="15">
+        <f>BJ13+BJ12*Nbz+BJ11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BK10" s="15">
+        <f>BK13+BK12*Nbz+BK11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BL10" s="15">
+        <f>BL13+BL12*Nbz+BL11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BM10" s="16">
+        <f>BM13+BM12*Nbz+BM11*Nby*Nbz</f>
+        <v>4</v>
+      </c>
+      <c r="BN10" s="14">
+        <f>BN13+BN12*Nbz+BN11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BO10" s="15">
+        <f>BO13+BO12*Nbz+BO11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BP10" s="15">
+        <f>BP13+BP12*Nbz+BP11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BQ10" s="15">
+        <f>BQ13+BQ12*Nbz+BQ11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BR10" s="15">
+        <f>BR13+BR12*Nbz+BR11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BS10" s="15">
+        <f>BS13+BS12*Nbz+BS11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BT10" s="15">
+        <f>BT13+BT12*Nbz+BT11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BU10" s="16">
+        <f>BU13+BU12*Nbz+BU11*Nby*Nbz</f>
+        <v>5</v>
+      </c>
+      <c r="BV10" s="14">
+        <f>BV13+BV12*Nbz+BV11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="BW10" s="15">
+        <f>BW13+BW12*Nbz+BW11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="BX10" s="15">
+        <f>BX13+BX12*Nbz+BX11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="BY10" s="15">
+        <f>BY13+BY12*Nbz+BY11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="BZ10" s="15">
+        <f>BZ13+BZ12*Nbz+BZ11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="CA10" s="15">
+        <f>CA13+CA12*Nbz+CA11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="CB10" s="15">
+        <f>CB13+CB12*Nbz+CB11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="CC10" s="15">
+        <f>CC13+CC12*Nbz+CC11*Nby*Nbz</f>
+        <v>6</v>
+      </c>
+      <c r="CD10" s="14">
+        <f>CD13+CD12*Nbz+CD11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CE10" s="15">
+        <f>CE13+CE12*Nbz+CE11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CF10" s="15">
+        <f>CF13+CF12*Nbz+CF11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CG10" s="15">
+        <f>CG13+CG12*Nbz+CG11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CH10" s="15">
+        <f>CH13+CH12*Nbz+CH11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CI10" s="15">
+        <f>CI13+CI12*Nbz+CI11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CJ10" s="15">
+        <f>CJ13+CJ12*Nbz+CJ11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CK10" s="16">
+        <f>CK13+CK12*Nbz+CK11*Nby*Nbz</f>
+        <v>7</v>
+      </c>
+      <c r="CL10" s="14">
+        <f>CL13+CL12*Nbz+CL11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CM10" s="15">
+        <f>CM13+CM12*Nbz+CM11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CN10" s="15">
+        <f>CN13+CN12*Nbz+CN11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CO10" s="15">
+        <f>CO13+CO12*Nbz+CO11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CP10" s="15">
+        <f>CP13+CP12*Nbz+CP11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CQ10" s="15">
+        <f>CQ13+CQ12*Nbz+CQ11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CR10" s="15">
+        <f>CR13+CR12*Nbz+CR11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CS10" s="16">
+        <f>CS13+CS12*Nbz+CS11*Nby*Nbz</f>
+        <v>8</v>
+      </c>
+      <c r="CT10" s="14">
+        <f>CT13+CT12*Nbz+CT11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CU10" s="15">
+        <f>CU13+CU12*Nbz+CU11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CV10" s="15">
+        <f>CV13+CV12*Nbz+CV11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CW10" s="15">
+        <f>CW13+CW12*Nbz+CW11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CX10" s="15">
+        <f>CX13+CX12*Nbz+CX11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CY10" s="15">
+        <f>CY13+CY12*Nbz+CY11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="CZ10" s="15">
+        <f>CZ13+CZ12*Nbz+CZ11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="DA10" s="16">
+        <f>DA13+DA12*Nbz+DA11*Nby*Nbz</f>
+        <v>9</v>
+      </c>
+      <c r="DB10" s="14">
+        <f>DB13+DB12*Nbz+DB11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DC10" s="15">
+        <f>DC13+DC12*Nbz+DC11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DD10" s="15">
+        <f>DD13+DD12*Nbz+DD11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DE10" s="15">
+        <f>DE13+DE12*Nbz+DE11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DF10" s="15">
+        <f>DF13+DF12*Nbz+DF11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DG10" s="15">
+        <f>DG13+DG12*Nbz+DG11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DH10" s="15">
+        <f>DH13+DH12*Nbz+DH11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DI10" s="16">
+        <f>DI13+DI12*Nbz+DI11*Nby*Nbz</f>
+        <v>10</v>
+      </c>
+      <c r="DJ10" s="14">
+        <f>DJ13+DJ12*Nbz+DJ11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DK10" s="15">
+        <f>DK13+DK12*Nbz+DK11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DL10" s="15">
+        <f>DL13+DL12*Nbz+DL11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DM10" s="15">
+        <f>DM13+DM12*Nbz+DM11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DN10" s="15">
+        <f>DN13+DN12*Nbz+DN11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DO10" s="15">
+        <f>DO13+DO12*Nbz+DO11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DP10" s="15">
+        <f>DP13+DP12*Nbz+DP11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
+      <c r="DQ10" s="16">
+        <f>DQ13+DQ12*Nbz+DQ11*Nby*Nbz</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -1713,23 +3048,409 @@
       </c>
       <c r="P11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="1">
-        <v>2</v>
-      </c>
-      <c r="V11" s="1">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="22">
+        <f>INT(Z5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="23">
+        <f>INT(AA5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
+        <f>INT(AB5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="23">
+        <f>INT(AC5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="23">
+        <f>INT(AD5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="23">
+        <f>INT(AE5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="23">
+        <f>INT(AF5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="23">
+        <f>INT(AG5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="22">
+        <f>INT(AH5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="23">
+        <f>INT(AI5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="23">
+        <f>INT(AJ5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="23">
+        <f>INT(AK5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="23">
+        <f>INT(AL5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="23">
+        <f>INT(AM5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="23">
+        <f>INT(AN5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="24">
+        <f>INT(AO5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="22">
+        <f>INT(AP5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="23">
+        <f>INT(AQ5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="23">
+        <f>INT(AR5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="23">
+        <f>INT(AS5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="23">
+        <f>INT(AT5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="23">
+        <f>INT(AU5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="23">
+        <f>INT(AV5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="24">
+        <f>INT(AW5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="22">
+        <f>INT(AX5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="23">
+        <f>INT(AY5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="23">
+        <f>INT(AZ5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="23">
+        <f>INT(BA5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="23">
+        <f>INT(BB5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="23">
+        <f>INT(BC5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="23">
+        <f>INT(BD5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="24">
+        <f>INT(BE5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="22">
+        <f>INT(BF5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="23">
+        <f>INT(BG5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="23">
+        <f>INT(BH5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="23">
+        <f>INT(BI5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="23">
+        <f>INT(BJ5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="23">
+        <f>INT(BK5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="23">
+        <f>INT(BL5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BM11" s="24">
+        <f>INT(BM5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BN11" s="22">
+        <f>INT(BN5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="23">
+        <f>INT(BO5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="23">
+        <f>INT(BP5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="23">
+        <f>INT(BQ5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BR11" s="23">
+        <f>INT(BR5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BS11" s="23">
+        <f>INT(BS5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BT11" s="23">
+        <f>INT(BT5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="24">
+        <f>INT(BU5/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="22">
+        <f>INT(BV5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BW11" s="23">
+        <f>INT(BW5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BX11" s="23">
+        <f>INT(BX5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BY11" s="23">
+        <f>INT(BY5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="23">
+        <f>INT(BZ5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CA11" s="23">
+        <f>INT(CA5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CB11" s="23">
+        <f>INT(CB5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CC11" s="23">
+        <f>INT(CC5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CD11" s="22">
+        <f>INT(CD5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CE11" s="23">
+        <f>INT(CE5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CF11" s="23">
+        <f>INT(CF5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CG11" s="23">
+        <f>INT(CG5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CH11" s="23">
+        <f>INT(CH5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CI11" s="23">
+        <f>INT(CI5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="23">
+        <f>INT(CJ5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CK11" s="24">
+        <f>INT(CK5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CL11" s="22">
+        <f>INT(CL5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CM11" s="23">
+        <f>INT(CM5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CN11" s="23">
+        <f>INT(CN5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CO11" s="23">
+        <f>INT(CO5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CP11" s="23">
+        <f>INT(CP5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="23">
+        <f>INT(CQ5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CR11" s="23">
+        <f>INT(CR5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CS11" s="24">
+        <f>INT(CS5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CT11" s="22">
+        <f>INT(CT5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CU11" s="23">
+        <f>INT(CU5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CV11" s="23">
+        <f>INT(CV5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CW11" s="23">
+        <f>INT(CW5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CX11" s="23">
+        <f>INT(CX5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CY11" s="23">
+        <f>INT(CY5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="23">
+        <f>INT(CZ5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DA11" s="24">
+        <f>INT(DA5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DB11" s="22">
+        <f>INT(DB5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DC11" s="23">
+        <f>INT(DC5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DD11" s="23">
+        <f>INT(DD5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DE11" s="23">
+        <f>INT(DE5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DF11" s="23">
+        <f>INT(DF5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DG11" s="23">
+        <f>INT(DG5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DH11" s="23">
+        <f>INT(DH5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DI11" s="24">
+        <f>INT(DI5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="22">
+        <f>INT(DJ5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DK11" s="23">
+        <f>INT(DK5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DL11" s="23">
+        <f>INT(DL5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DM11" s="23">
+        <f>INT(DM5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DN11" s="23">
+        <f>INT(DN5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DO11" s="23">
+        <f>INT(DO5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DP11" s="23">
+        <f>INT(DP5/Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="24">
+        <f>INT(DQ5/Nnbx)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -1752,36 +3473,429 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
+        <f>M4+1</f>
         <v>4</v>
       </c>
       <c r="M12" s="3">
+        <f>L13+1</f>
         <v>6</v>
       </c>
       <c r="N12" s="2">
-        <v>36</v>
+        <f>O4+1</f>
+        <v>28</v>
       </c>
       <c r="O12" s="3">
         <f>N13+1</f>
-        <v>38</v>
-      </c>
-      <c r="P12" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="P12" s="17"/>
       <c r="Q12" t="s">
         <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="22">
-        <v>0</v>
-      </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="22">
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18">
         <v>3</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="21"/>
+      <c r="W12" s="17"/>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="22">
+        <f>INT(Z6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="23">
+        <f>INT(AA6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="23">
+        <f>INT(AB6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="23">
+        <f>INT(AC6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="23">
+        <f>INT(AD6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="23">
+        <f>INT(AE6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="23">
+        <f>INT(AF6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="23">
+        <f>INT(AG6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="22">
+        <f>INT(AH6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="23">
+        <f>INT(AI6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="23">
+        <f>INT(AJ6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="23">
+        <f>INT(AK6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="23">
+        <f>INT(AL6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="23">
+        <f>INT(AM6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="23">
+        <f>INT(AN6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="24">
+        <f>INT(AO6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="22">
+        <f>INT(AP6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="23">
+        <f>INT(AQ6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="23">
+        <f>INT(AR6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="23">
+        <f>INT(AS6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="23">
+        <f>INT(AT6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="23">
+        <f>INT(AU6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="23">
+        <f>INT(AV6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="24">
+        <f>INT(AW6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="22">
+        <f>INT(AX6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AY12" s="23">
+        <f>INT(AY6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="23">
+        <f>INT(AZ6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BA12" s="23">
+        <f>INT(BA6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BB12" s="23">
+        <f>INT(BB6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BC12" s="23">
+        <f>INT(BC6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BD12" s="23">
+        <f>INT(BD6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BE12" s="24">
+        <f>INT(BE6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BF12" s="22">
+        <f>INT(BF6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BG12" s="23">
+        <f>INT(BG6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BH12" s="23">
+        <f>INT(BH6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BI12" s="23">
+        <f>INT(BI6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="23">
+        <f>INT(BJ6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BK12" s="23">
+        <f>INT(BK6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BL12" s="23">
+        <f>INT(BL6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BM12" s="24">
+        <f>INT(BM6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BN12" s="22">
+        <f>INT(BN6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BO12" s="23">
+        <f>INT(BO6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BP12" s="23">
+        <f>INT(BP6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="23">
+        <f>INT(BQ6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BR12" s="23">
+        <f>INT(BR6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BS12" s="23">
+        <f>INT(BS6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BT12" s="23">
+        <f>INT(BT6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BU12" s="24">
+        <f>INT(BU6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BV12" s="22">
+        <f>INT(BV6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="23">
+        <f>INT(BW6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="23">
+        <f>INT(BX6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BY12" s="23">
+        <f>INT(BY6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="23">
+        <f>INT(BZ6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CA12" s="23">
+        <f>INT(CA6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CB12" s="23">
+        <f>INT(CB6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CC12" s="23">
+        <f>INT(CC6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CD12" s="22">
+        <f>INT(CD6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CE12" s="23">
+        <f>INT(CE6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CF12" s="23">
+        <f>INT(CF6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CG12" s="23">
+        <f>INT(CG6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CH12" s="23">
+        <f>INT(CH6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CI12" s="23">
+        <f>INT(CI6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="23">
+        <f>INT(CJ6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CK12" s="24">
+        <f>INT(CK6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CL12" s="22">
+        <f>INT(CL6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CM12" s="23">
+        <f>INT(CM6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CN12" s="23">
+        <f>INT(CN6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CO12" s="23">
+        <f>INT(CO6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CP12" s="23">
+        <f>INT(CP6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="23">
+        <f>INT(CQ6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CR12" s="23">
+        <f>INT(CR6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CS12" s="24">
+        <f>INT(CS6/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CT12" s="22">
+        <f>INT(CT6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CU12" s="23">
+        <f>INT(CU6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CV12" s="23">
+        <f>INT(CV6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CW12" s="23">
+        <f>INT(CW6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CX12" s="23">
+        <f>INT(CX6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CY12" s="23">
+        <f>INT(CY6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ12" s="23">
+        <f>INT(CZ6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DA12" s="24">
+        <f>INT(DA6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DB12" s="22">
+        <f>INT(DB6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DC12" s="23">
+        <f>INT(DC6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DD12" s="23">
+        <f>INT(DD6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DE12" s="23">
+        <f>INT(DE6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DF12" s="23">
+        <f>INT(DF6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DG12" s="23">
+        <f>INT(DG6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DH12" s="23">
+        <f>INT(DH6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DI12" s="24">
+        <f>INT(DI6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ12" s="22">
+        <f>INT(DJ6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DK12" s="23">
+        <f>INT(DK6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DL12" s="23">
+        <f>INT(DL6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DM12" s="23">
+        <f>INT(DM6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DN12" s="23">
+        <f>INT(DN6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DO12" s="23">
+        <f>INT(DO6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DP12" s="23">
+        <f>INT(DP6/Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DQ12" s="24">
+        <f>INT(DQ6/Nnby)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -1801,38 +3915,420 @@
         <v>1</v>
       </c>
       <c r="L13" s="4">
+        <f t="shared" ref="L13:O13" si="3">L12+1</f>
         <v>5</v>
       </c>
       <c r="M13" s="5">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N13" s="4">
-        <f>N12+1</f>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="O13" s="5">
-        <f>O12+1</f>
-        <v>39</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="24">
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
-      <c r="U13" s="24">
-        <v>0</v>
-      </c>
-      <c r="V13" s="25">
-        <v>1</v>
-      </c>
-      <c r="W13" s="21"/>
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="17"/>
+      <c r="X13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="11">
+        <f>INT(Z7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <f>INT(AA7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <f>INT(AB7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <f>INT(AC7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <f>INT(AD7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <f>INT(AE7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <f>INT(AF7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <f>INT(AG7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11">
+        <f>INT(AH7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="12">
+        <f>INT(AI7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="12">
+        <f>INT(AJ7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="12">
+        <f>INT(AK7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="12">
+        <f>INT(AL7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="12">
+        <f>INT(AM7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="12">
+        <f>INT(AN7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="13">
+        <f>INT(AO7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="11">
+        <f>INT(AP7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="12">
+        <f>INT(AQ7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AR13" s="12">
+        <f>INT(AR7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AS13" s="12">
+        <f>INT(AS7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AT13" s="12">
+        <f>INT(AT7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AU13" s="12">
+        <f>INT(AU7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AV13" s="12">
+        <f>INT(AV7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AW13" s="13">
+        <f>INT(AW7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="AX13" s="11">
+        <f>INT(AX7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="12">
+        <f>INT(AY7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f>INT(AZ7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="12">
+        <f>INT(BA7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="12">
+        <f>INT(BB7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="12">
+        <f>INT(BC7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="12">
+        <f>INT(BD7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="13">
+        <f>INT(BE7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="11">
+        <f>INT(BF7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BG13" s="12">
+        <f>INT(BG7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BH13" s="12">
+        <f>INT(BH7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BI13" s="12">
+        <f>INT(BI7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="12">
+        <f>INT(BJ7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BK13" s="12">
+        <f>INT(BK7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BL13" s="12">
+        <f>INT(BL7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BM13" s="13">
+        <f>INT(BM7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BN13" s="11">
+        <f>INT(BN7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BO13" s="12">
+        <f>INT(BO7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BP13" s="12">
+        <f>INT(BP7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BQ13" s="12">
+        <f>INT(BQ7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BR13" s="12">
+        <f>INT(BR7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BS13" s="12">
+        <f>INT(BS7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BT13" s="12">
+        <f>INT(BT7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BU13" s="13">
+        <f>INT(BU7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="BV13" s="11">
+        <f>INT(BV7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="12">
+        <f>INT(BW7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="12">
+        <f>INT(BX7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="12">
+        <f>INT(BY7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="12">
+        <f>INT(BZ7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CA13" s="12">
+        <f>INT(CA7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CB13" s="12">
+        <f>INT(CB7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CC13" s="12">
+        <f>INT(CC7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CD13" s="11">
+        <f>INT(CD7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CE13" s="12">
+        <f>INT(CE7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CF13" s="12">
+        <f>INT(CF7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CG13" s="12">
+        <f>INT(CG7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CH13" s="12">
+        <f>INT(CH7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CI13" s="12">
+        <f>INT(CI7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="12">
+        <f>INT(CJ7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CK13" s="13">
+        <f>INT(CK7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CL13" s="11">
+        <f>INT(CL7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CM13" s="12">
+        <f>INT(CM7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CN13" s="12">
+        <f>INT(CN7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CO13" s="12">
+        <f>INT(CO7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CP13" s="12">
+        <f>INT(CP7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CQ13" s="12">
+        <f>INT(CQ7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CR13" s="12">
+        <f>INT(CR7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CS13" s="13">
+        <f>INT(CS7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="CT13" s="11">
+        <f>INT(CT7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CU13" s="12">
+        <f>INT(CU7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CV13" s="12">
+        <f>INT(CV7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CW13" s="12">
+        <f>INT(CW7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CX13" s="12">
+        <f>INT(CX7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CY13" s="12">
+        <f>INT(CY7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="12">
+        <f>INT(CZ7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DA13" s="13">
+        <f>INT(DA7/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DB13" s="11">
+        <f>INT(DB7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DC13" s="12">
+        <f>INT(DC7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DD13" s="12">
+        <f>INT(DD7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DE13" s="12">
+        <f>INT(DE7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DF13" s="12">
+        <f>INT(DF7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DG13" s="12">
+        <f>INT(DG7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DH13" s="12">
+        <f>INT(DH7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DI13" s="13">
+        <f>INT(DI7/Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ13" s="11">
+        <f>INT(DJ7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DK13" s="12">
+        <f>INT(DK7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DL13" s="12">
+        <f>INT(DL7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DM13" s="12">
+        <f>INT(DM7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DN13" s="12">
+        <f>INT(DN7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DO13" s="12">
+        <f>INT(DO7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DP13" s="12">
+        <f>INT(DP7/Nnbz)</f>
+        <v>2</v>
+      </c>
+      <c r="DQ13" s="13">
+        <f>INT(DQ7/Nnbz)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4</v>
       </c>
@@ -1852,100 +4348,178 @@
         <v>2</v>
       </c>
       <c r="L14" s="2">
+        <f>M6+1</f>
         <v>12</v>
       </c>
       <c r="M14" s="3">
+        <f>L15+1</f>
         <v>14</v>
       </c>
       <c r="N14" s="2">
-        <v>40</v>
+        <f>O6+1</f>
+        <v>36</v>
       </c>
       <c r="O14" s="3">
         <f>N15+1</f>
-        <v>42</v>
-      </c>
-      <c r="P14" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="P14" s="17"/>
       <c r="R14" s="1">
-        <v>2</v>
-      </c>
-      <c r="S14" s="22">
-        <v>1</v>
-      </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="22">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18">
         <v>4</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="21"/>
+      <c r="W14" s="17"/>
+      <c r="Z14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="6"/>
+      <c r="CI14" s="6"/>
+      <c r="CJ14" s="6"/>
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+      <c r="CO14" s="6"/>
+      <c r="CP14" s="6"/>
+      <c r="CQ14" s="6"/>
+      <c r="CR14" s="6"/>
+      <c r="CS14" s="6"/>
+      <c r="CT14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="CU14" s="6"/>
+      <c r="CV14" s="6"/>
+      <c r="CW14" s="6"/>
+      <c r="CX14" s="6"/>
+      <c r="CY14" s="6"/>
+      <c r="CZ14" s="6"/>
+      <c r="DA14" s="6"/>
+      <c r="DB14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC14" s="6"/>
+      <c r="DD14" s="6"/>
+      <c r="DE14" s="6"/>
+      <c r="DF14" s="6"/>
+      <c r="DG14" s="6"/>
+      <c r="DH14" s="6"/>
+      <c r="DI14" s="6"/>
+      <c r="DJ14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK14" s="6"/>
+      <c r="DL14" s="6"/>
+      <c r="DM14" s="6"/>
+      <c r="DN14" s="6"/>
+      <c r="DO14" s="6"/>
+      <c r="DP14" s="6"/>
+      <c r="DQ14" s="6"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="4">
+        <f t="shared" ref="L15:O15" si="4">L14+1</f>
         <v>13</v>
       </c>
       <c r="M15" s="5">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N15" s="4">
-        <f>N14+1</f>
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="O15" s="5">
-        <f>O14+1</f>
-        <v>43</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="R15" s="1">
-        <v>3</v>
-      </c>
-      <c r="S15" s="24">
-        <v>1</v>
-      </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
-      <c r="U15" s="24">
-        <v>1</v>
-      </c>
-      <c r="V15" s="25">
-        <v>1</v>
-      </c>
-      <c r="W15" s="21"/>
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="17"/>
+      <c r="BV15" s="29"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
       <c r="K16" s="1">
         <v>4</v>
       </c>
       <c r="L16" s="2">
+        <f>M8+1</f>
         <v>20</v>
       </c>
       <c r="M16" s="3">
+        <f>L17+1</f>
         <v>22</v>
       </c>
       <c r="N16" s="2">
+        <f>O8+1</f>
         <v>44</v>
       </c>
       <c r="O16" s="3">
         <f>N17+1</f>
         <v>46</v>
       </c>
-      <c r="P16" s="21"/>
+      <c r="P16" s="17"/>
       <c r="R16" s="1">
-        <v>4</v>
-      </c>
-      <c r="S16" s="22">
-        <v>2</v>
-      </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="22">
+        <v>2</v>
+      </c>
+      <c r="S16" s="18">
+        <v>2</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18">
         <v>5</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="21"/>
+      <c r="W16" s="17"/>
+      <c r="BV16" s="29"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1968,38 +4542,34 @@
         <v>5</v>
       </c>
       <c r="L17" s="4">
+        <f t="shared" ref="L17:O17" si="5">L16+1</f>
         <v>21</v>
       </c>
       <c r="M17" s="5">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="N17" s="4">
-        <f>N16+1</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="O17" s="5">
-        <f>O16+1</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="R17" s="1">
-        <v>5</v>
-      </c>
-      <c r="S17" s="4">
-        <v>2</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="24">
-        <v>2</v>
-      </c>
-      <c r="V17" s="25">
-        <v>1</v>
-      </c>
-      <c r="W17" s="21"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="17"/>
+      <c r="Z17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV17" s="29"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -2016,8 +4586,401 @@
         <v>55</v>
       </c>
       <c r="K18" s="1"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="Y18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="14">
+        <f>Z21+Z20*Nnbz+Z19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>AA21+AA20*Nnbz+AA19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>AB21+AB20*Nnbz+AB19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="15">
+        <f>AC21+AC20*Nnbz+AC19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="15">
+        <f>AD21+AD20*Nnbz+AD19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="AE18" s="15">
+        <f>AE21+AE20*Nnbz+AE19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="AF18" s="15">
+        <f>AF21+AF20*Nnbz+AF19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="AG18" s="16">
+        <f>AG21+AG20*Nnbz+AG19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="AH18" s="14">
+        <f>AH21+AH20*Nnbz+AH19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="15">
+        <f>AI21+AI20*Nnbz+AI19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="15">
+        <f>AJ21+AJ20*Nnbz+AJ19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="AK18" s="15">
+        <f>AK21+AK20*Nnbz+AK19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="AL18" s="15">
+        <f>AL21+AL20*Nnbz+AL19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="AM18" s="15">
+        <f>AM21+AM20*Nnbz+AM19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="AN18" s="15">
+        <f>AN21+AN20*Nnbz+AN19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="AO18" s="16">
+        <f>AO21+AO20*Nnbz+AO19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="AP18" s="14">
+        <f>AP21+AP20*Nnbz+AP19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="15">
+        <f>AQ21+AQ20*Nnbz+AQ19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AR18" s="15">
+        <f>AR21+AR20*Nnbz+AR19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="AS18" s="15">
+        <f>AS21+AS20*Nnbz+AS19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="AT18" s="15">
+        <f>AT21+AT20*Nnbz+AT19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="AU18" s="15">
+        <f>AU21+AU20*Nnbz+AU19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="AV18" s="15">
+        <f>AV21+AV20*Nnbz+AV19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="AW18" s="16">
+        <f>AW21+AW20*Nnbz+AW19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="AX18" s="14">
+        <f>AX21+AX20*Nnbz+AX19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="15">
+        <f>AY21+AY20*Nnbz+AY19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="15">
+        <f>AZ21+AZ20*Nnbz+AZ19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="BA18" s="15">
+        <f>BA21+BA20*Nnbz+BA19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="BB18" s="15">
+        <f>BB21+BB20*Nnbz+BB19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="BC18" s="15">
+        <f>BC21+BC20*Nnbz+BC19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="BD18" s="15">
+        <f>BD21+BD20*Nnbz+BD19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="BE18" s="16">
+        <f>BE21+BE20*Nnbz+BE19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="BF18" s="14">
+        <f>BF21+BF20*Nnbz+BF19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="15">
+        <f>BG21+BG20*Nnbz+BG19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="BH18" s="15">
+        <f>BH21+BH20*Nnbz+BH19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="BI18" s="15">
+        <f>BI21+BI20*Nnbz+BI19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="BJ18" s="15">
+        <f>BJ21+BJ20*Nnbz+BJ19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="BK18" s="15">
+        <f>BK21+BK20*Nnbz+BK19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="BL18" s="15">
+        <f>BL21+BL20*Nnbz+BL19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="BM18" s="16">
+        <f>BM21+BM20*Nnbz+BM19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="BN18" s="14">
+        <f>BN21+BN20*Nnbz+BN19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="15">
+        <f>BO21+BO20*Nnbz+BO19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="BP18" s="15">
+        <f>BP21+BP20*Nnbz+BP19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="BQ18" s="15">
+        <f>BQ21+BQ20*Nnbz+BQ19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="BR18" s="15">
+        <f>BR21+BR20*Nnbz+BR19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="BS18" s="15">
+        <f>BS21+BS20*Nnbz+BS19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="BT18" s="15">
+        <f>BT21+BT20*Nnbz+BT19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="BU18" s="16">
+        <f>BU21+BU20*Nnbz+BU19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="BV18" s="14">
+        <f>BV21+BV20*Nnbz+BV19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="15">
+        <f>BW21+BW20*Nnbz+BW19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="BX18" s="15">
+        <f>BX21+BX20*Nnbz+BX19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="BY18" s="15">
+        <f>BY21+BY20*Nnbz+BY19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="BZ18" s="15">
+        <f>BZ21+BZ20*Nnbz+BZ19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="CA18" s="15">
+        <f>CA21+CA20*Nnbz+CA19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="CB18" s="15">
+        <f>CB21+CB20*Nnbz+CB19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="CC18" s="16">
+        <f>CC21+CC20*Nnbz+CC19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="CD18" s="14">
+        <f>CD21+CD20*Nnbz+CD19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="CE18" s="15">
+        <f>CE21+CE20*Nnbz+CE19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="CF18" s="15">
+        <f>CF21+CF20*Nnbz+CF19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="CG18" s="15">
+        <f>CG21+CG20*Nnbz+CG19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="CH18" s="15">
+        <f>CH21+CH20*Nnbz+CH19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="CI18" s="15">
+        <f>CI21+CI20*Nnbz+CI19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="CJ18" s="15">
+        <f>CJ21+CJ20*Nnbz+CJ19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="CK18" s="16">
+        <f>CK21+CK20*Nnbz+CK19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="CL18" s="14">
+        <f>CL21+CL20*Nnbz+CL19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="CM18" s="15">
+        <f>CM21+CM20*Nnbz+CM19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="CN18" s="15">
+        <f>CN21+CN20*Nnbz+CN19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="CO18" s="15">
+        <f>CO21+CO20*Nnbz+CO19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="CP18" s="15">
+        <f>CP21+CP20*Nnbz+CP19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="CQ18" s="15">
+        <f>CQ21+CQ20*Nnbz+CQ19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="CR18" s="15">
+        <f>CR21+CR20*Nnbz+CR19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="CS18" s="16">
+        <f>CS21+CS20*Nnbz+CS19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="CT18" s="14">
+        <f>CT21+CT20*Nnbz+CT19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="CU18" s="15">
+        <f>CU21+CU20*Nnbz+CU19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="CV18" s="15">
+        <f>CV21+CV20*Nnbz+CV19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="CW18" s="15">
+        <f>CW21+CW20*Nnbz+CW19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="CX18" s="15">
+        <f>CX21+CX20*Nnbz+CX19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="CY18" s="15">
+        <f>CY21+CY20*Nnbz+CY19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="CZ18" s="15">
+        <f>CZ21+CZ20*Nnbz+CZ19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="DA18" s="16">
+        <f>DA21+DA20*Nnbz+DA19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="DB18" s="14">
+        <f>DB21+DB20*Nnbz+DB19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="DC18" s="15">
+        <f>DC21+DC20*Nnbz+DC19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="DD18" s="15">
+        <f>DD21+DD20*Nnbz+DD19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="DE18" s="15">
+        <f>DE21+DE20*Nnbz+DE19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="DF18" s="15">
+        <f>DF21+DF20*Nnbz+DF19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="DG18" s="15">
+        <f>DG21+DG20*Nnbz+DG19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="DH18" s="15">
+        <f>DH21+DH20*Nnbz+DH19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="DI18" s="16">
+        <f>DI21+DI20*Nnbz+DI19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="DJ18" s="14">
+        <f>DJ21+DJ20*Nnbz+DJ19*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="DK18" s="15">
+        <f>DK21+DK20*Nnbz+DK19*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="DL18" s="15">
+        <f>DL21+DL20*Nnbz+DL19*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="DM18" s="15">
+        <f>DM21+DM20*Nnbz+DM19*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="DN18" s="15">
+        <f>DN21+DN20*Nnbz+DN19*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="DO18" s="15">
+        <f>DO21+DO20*Nnbz+DO19*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="DP18" s="15">
+        <f>DP21+DP20*Nnbz+DP19*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="DQ18" s="16">
+        <f>DQ21+DQ20*Nnbz+DQ19*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -2034,8 +4997,398 @@
         <v>56</v>
       </c>
       <c r="K19" s="1"/>
+      <c r="X19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z19" s="22">
+        <f>MOD(Z5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <f>MOD(AA5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="23">
+        <f>MOD(AB5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="23">
+        <f>MOD(AC5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="23">
+        <f>MOD(AD5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="23">
+        <f>MOD(AE5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="23">
+        <f>MOD(AF5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="24">
+        <f>MOD(AG5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="22">
+        <f>MOD(AH5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="23">
+        <f>MOD(AI5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="23">
+        <f>MOD(AJ5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="23">
+        <f>MOD(AK5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="23">
+        <f>MOD(AL5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AM19" s="23">
+        <f>MOD(AM5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AN19" s="23">
+        <f>MOD(AN5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="24">
+        <f>MOD(AO5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AP19" s="22">
+        <f>MOD(AP5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="23">
+        <f>MOD(AQ5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="23">
+        <f>MOD(AR5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="23">
+        <f>MOD(AS5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="23">
+        <f>MOD(AT5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AU19" s="23">
+        <f>MOD(AU5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AV19" s="23">
+        <f>MOD(AV5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AW19" s="24">
+        <f>MOD(AW5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="AX19" s="22">
+        <f>MOD(AX5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="23">
+        <f>MOD(AY5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="23">
+        <f>MOD(AZ5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="23">
+        <f>MOD(BA5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="23">
+        <f>MOD(BB5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BC19" s="23">
+        <f>MOD(BC5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BD19" s="23">
+        <f>MOD(BD5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BE19" s="24">
+        <f>MOD(BE5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BF19" s="22">
+        <f>MOD(BF5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BG19" s="23">
+        <f>MOD(BG5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="23">
+        <f>MOD(BH5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="23">
+        <f>MOD(BI5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="23">
+        <f>MOD(BJ5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BK19" s="23">
+        <f>MOD(BK5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BL19" s="23">
+        <f>MOD(BL5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BM19" s="24">
+        <f>MOD(BM5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BN19" s="22">
+        <f>MOD(BN5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="23">
+        <f>MOD(BO5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="23">
+        <f>MOD(BP5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="23">
+        <f>MOD(BQ5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BR19" s="23">
+        <f>MOD(BR5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BS19" s="23">
+        <f>MOD(BS5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BT19" s="23">
+        <f>MOD(BT5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BU19" s="24">
+        <f>MOD(BU5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="BV19" s="22">
+        <f>MOD(BV5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="23">
+        <f>MOD(BW5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="23">
+        <f>MOD(BX5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="23">
+        <f>MOD(BY5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="23">
+        <f>MOD(BZ5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CA19" s="23">
+        <f>MOD(CA5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CB19" s="23">
+        <f>MOD(CB5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CC19" s="24">
+        <f>MOD(CC5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CD19" s="22">
+        <f>MOD(CD5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CE19" s="23">
+        <f>MOD(CE5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CF19" s="23">
+        <f>MOD(CF5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CG19" s="23">
+        <f>MOD(CG5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CH19" s="23">
+        <f>MOD(CH5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CI19" s="23">
+        <f>MOD(CI5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ19" s="23">
+        <f>MOD(CJ5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CK19" s="24">
+        <f>MOD(CK5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CL19" s="22">
+        <f>MOD(CL5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CM19" s="23">
+        <f>MOD(CM5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CN19" s="23">
+        <f>MOD(CN5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CO19" s="23">
+        <f>MOD(CO5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CP19" s="23">
+        <f>MOD(CP5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="23">
+        <f>MOD(CQ5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CR19" s="23">
+        <f>MOD(CR5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CS19" s="24">
+        <f>MOD(CS5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CT19" s="22">
+        <f>MOD(CT5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CU19" s="23">
+        <f>MOD(CU5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CV19" s="23">
+        <f>MOD(CV5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CW19" s="23">
+        <f>MOD(CW5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="CX19" s="23">
+        <f>MOD(CX5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CY19" s="23">
+        <f>MOD(CY5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ19" s="23">
+        <f>MOD(CZ5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DA19" s="24">
+        <f>MOD(DA5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DB19" s="22">
+        <f>MOD(DB5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DC19" s="23">
+        <f>MOD(DC5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DD19" s="23">
+        <f>MOD(DD5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DE19" s="23">
+        <f>MOD(DE5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DF19" s="23">
+        <f>MOD(DF5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DG19" s="23">
+        <f>MOD(DG5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DH19" s="23">
+        <f>MOD(DH5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DI19" s="24">
+        <f>MOD(DI5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ19" s="22">
+        <f>MOD(DJ5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DK19" s="23">
+        <f>MOD(DK5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DL19" s="23">
+        <f>MOD(DL5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DM19" s="23">
+        <f>MOD(DM5,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="DN19" s="23">
+        <f>MOD(DN5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DO19" s="23">
+        <f>MOD(DO5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DP19" s="23">
+        <f>MOD(DP5,Nnbx)</f>
+        <v>1</v>
+      </c>
+      <c r="DQ19" s="24">
+        <f>MOD(DQ5,Nnbx)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -2051,9 +5404,412 @@
       <c r="F20">
         <v>57</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K20" s="1"/>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="22">
+        <f>MOD(Z6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="23">
+        <f>MOD(AA6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="23">
+        <f>MOD(AB6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="23">
+        <f>MOD(AC6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="23">
+        <f>MOD(AD6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="23">
+        <f>MOD(AE6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="23">
+        <f>MOD(AF6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="24">
+        <f>MOD(AG6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="22">
+        <f>MOD(AH6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="23">
+        <f>MOD(AI6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="23">
+        <f>MOD(AJ6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="23">
+        <f>MOD(AK6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="23">
+        <f>MOD(AL6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="23">
+        <f>MOD(AM6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="23">
+        <f>MOD(AN6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AO20" s="24">
+        <f>MOD(AO6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AP20" s="22">
+        <f>MOD(AP6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="23">
+        <f>MOD(AQ6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="23">
+        <f>MOD(AR6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AS20" s="23">
+        <f>MOD(AS6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AT20" s="23">
+        <f>MOD(AT6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="23">
+        <f>MOD(AU6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="23">
+        <f>MOD(AV6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AW20" s="24">
+        <f>MOD(AW6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="AX20" s="22">
+        <f>MOD(AX6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="23">
+        <f>MOD(AY6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="23">
+        <f>MOD(AZ6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BA20" s="23">
+        <f>MOD(BA6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BB20" s="23">
+        <f>MOD(BB6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="23">
+        <f>MOD(BC6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="23">
+        <f>MOD(BD6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BE20" s="24">
+        <f>MOD(BE6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BF20" s="22">
+        <f>MOD(BF6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="23">
+        <f>MOD(BG6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BH20" s="23">
+        <f>MOD(BH6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BI20" s="23">
+        <f>MOD(BI6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="23">
+        <f>MOD(BJ6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BK20" s="23">
+        <f>MOD(BK6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="23">
+        <f>MOD(BL6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BM20" s="24">
+        <f>MOD(BM6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BN20" s="22">
+        <f>MOD(BN6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BO20" s="23">
+        <f>MOD(BO6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="23">
+        <f>MOD(BP6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="23">
+        <f>MOD(BQ6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BR20" s="23">
+        <f>MOD(BR6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BS20" s="23">
+        <f>MOD(BS6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BT20" s="23">
+        <f>MOD(BT6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BU20" s="24">
+        <f>MOD(BU6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BV20" s="22">
+        <f>MOD(BV6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BW20" s="23">
+        <f>MOD(BW6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="BX20" s="23">
+        <f>MOD(BX6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BY20" s="23">
+        <f>MOD(BY6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ20" s="23">
+        <f>MOD(BZ6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CA20" s="23">
+        <f>MOD(CA6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CB20" s="23">
+        <f>MOD(CB6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CC20" s="24">
+        <f>MOD(CC6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CD20" s="22">
+        <f>MOD(CD6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CE20" s="23">
+        <f>MOD(CE6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CF20" s="23">
+        <f>MOD(CF6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CG20" s="23">
+        <f>MOD(CG6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CH20" s="23">
+        <f>MOD(CH6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CI20" s="23">
+        <f>MOD(CI6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="23">
+        <f>MOD(CJ6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CK20" s="24">
+        <f>MOD(CK6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CL20" s="22">
+        <f>MOD(CL6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CM20" s="23">
+        <f>MOD(CM6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CN20" s="23">
+        <f>MOD(CN6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CO20" s="23">
+        <f>MOD(CO6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CP20" s="23">
+        <f>MOD(CP6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="23">
+        <f>MOD(CQ6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CR20" s="23">
+        <f>MOD(CR6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CS20" s="24">
+        <f>MOD(CS6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CT20" s="22">
+        <f>MOD(CT6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CU20" s="23">
+        <f>MOD(CU6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CV20" s="23">
+        <f>MOD(CV6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CW20" s="23">
+        <f>MOD(CW6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="CX20" s="23">
+        <f>MOD(CX6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CY20" s="23">
+        <f>MOD(CY6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ20" s="23">
+        <f>MOD(CZ6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DA20" s="24">
+        <f>MOD(DA6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DB20" s="22">
+        <f>MOD(DB6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DC20" s="23">
+        <f>MOD(DC6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DD20" s="23">
+        <f>MOD(DD6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DE20" s="23">
+        <f>MOD(DE6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DF20" s="23">
+        <f>MOD(DF6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DG20" s="23">
+        <f>MOD(DG6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DH20" s="23">
+        <f>MOD(DH6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DI20" s="24">
+        <f>MOD(DI6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ20" s="22">
+        <f>MOD(DJ6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DK20" s="23">
+        <f>MOD(DK6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DL20" s="23">
+        <f>MOD(DL6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DM20" s="23">
+        <f>MOD(DM6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DN20" s="23">
+        <f>MOD(DN6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DO20" s="23">
+        <f>MOD(DO6,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="DP20" s="23">
+        <f>MOD(DP6,Nnby)</f>
+        <v>1</v>
+      </c>
+      <c r="DQ20" s="24">
+        <f>MOD(DQ6,Nnby)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -2069,9 +5825,424 @@
       <c r="F21">
         <v>58</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="X21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="11">
+        <f>MOD(Z7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
+        <f>MOD(AA7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>MOD(AB7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <f>MOD(AC7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="12">
+        <f>MOD(AD7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="12">
+        <f>MOD(AE7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="12">
+        <f>MOD(AF7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="13">
+        <f>MOD(AG7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="11">
+        <f>MOD(AH7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="12">
+        <f>MOD(AI7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="12">
+        <f>MOD(AJ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="12">
+        <f>MOD(AK7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="12">
+        <f>MOD(AL7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="12">
+        <f>MOD(AM7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AN21" s="12">
+        <f>MOD(AN7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="13">
+        <f>MOD(AO7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AP21" s="11">
+        <f>MOD(AP7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="12">
+        <f>MOD(AQ7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="12">
+        <f>MOD(AR7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="12">
+        <f>MOD(AS7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AT21" s="12">
+        <f>MOD(AT7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="12">
+        <f>MOD(AU7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AV21" s="12">
+        <f>MOD(AV7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="13">
+        <f>MOD(AW7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AX21" s="11">
+        <f>MOD(AX7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="12">
+        <f>MOD(AY7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="12">
+        <f>MOD(AZ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="12">
+        <f>MOD(BA7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BB21" s="12">
+        <f>MOD(BB7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="12">
+        <f>MOD(BC7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BD21" s="12">
+        <f>MOD(BD7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="13">
+        <f>MOD(BE7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BF21" s="11">
+        <f>MOD(BF7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="12">
+        <f>MOD(BG7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BH21" s="12">
+        <f>MOD(BH7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="12">
+        <f>MOD(BI7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="12">
+        <f>MOD(BJ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="12">
+        <f>MOD(BK7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BL21" s="12">
+        <f>MOD(BL7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="13">
+        <f>MOD(BM7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BN21" s="11">
+        <f>MOD(BN7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="12">
+        <f>MOD(BO7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BP21" s="12">
+        <f>MOD(BP7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="12">
+        <f>MOD(BQ7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BR21" s="12">
+        <f>MOD(BR7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="12">
+        <f>MOD(BS7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BT21" s="12">
+        <f>MOD(BT7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="13">
+        <f>MOD(BU7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BV21" s="11">
+        <f>MOD(BV7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="12">
+        <f>MOD(BW7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BX21" s="12">
+        <f>MOD(BX7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="12">
+        <f>MOD(BY7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ21" s="12">
+        <f>MOD(BZ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CA21" s="12">
+        <f>MOD(CA7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CB21" s="12">
+        <f>MOD(CB7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CC21" s="13">
+        <f>MOD(CC7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CD21" s="11">
+        <f>MOD(CD7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CE21" s="12">
+        <f>MOD(CE7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CF21" s="12">
+        <f>MOD(CF7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="12">
+        <f>MOD(CG7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CH21" s="12">
+        <f>MOD(CH7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CI21" s="12">
+        <f>MOD(CI7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ21" s="12">
+        <f>MOD(CJ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CK21" s="13">
+        <f>MOD(CK7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CL21" s="11">
+        <f>MOD(CL7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CM21" s="12">
+        <f>MOD(CM7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CN21" s="12">
+        <f>MOD(CN7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="12">
+        <f>MOD(CO7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CP21" s="12">
+        <f>MOD(CP7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="12">
+        <f>MOD(CQ7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CR21" s="12">
+        <f>MOD(CR7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CS21" s="13">
+        <f>MOD(CS7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CT21" s="11">
+        <f>MOD(CT7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CU21" s="12">
+        <f>MOD(CU7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CV21" s="12">
+        <f>MOD(CV7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CW21" s="12">
+        <f>MOD(CW7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CX21" s="12">
+        <f>MOD(CX7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="CY21" s="12">
+        <f>MOD(CY7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ21" s="12">
+        <f>MOD(CZ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DA21" s="13">
+        <f>MOD(DA7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DB21" s="11">
+        <f>MOD(DB7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DC21" s="12">
+        <f>MOD(DC7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DD21" s="12">
+        <f>MOD(DD7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DE21" s="12">
+        <f>MOD(DE7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DF21" s="12">
+        <f>MOD(DF7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DG21" s="12">
+        <f>MOD(DG7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DH21" s="12">
+        <f>MOD(DH7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DI21" s="13">
+        <f>MOD(DI7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DJ21" s="11">
+        <f>MOD(DJ7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DK21" s="12">
+        <f>MOD(DK7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DL21" s="12">
+        <f>MOD(DL7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DM21" s="12">
+        <f>MOD(DM7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DN21" s="12">
+        <f>MOD(DN7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DO21" s="12">
+        <f>MOD(DO7,Nnbz)</f>
+        <v>1</v>
+      </c>
+      <c r="DP21" s="12">
+        <f>MOD(DP7,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="DQ21" s="13">
+        <f>MOD(DQ7,Nnbz)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -2087,10 +6258,493 @@
       <c r="F22">
         <v>59</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>48</v>
+      </c>
+      <c r="M22" s="3">
+        <f>L23+1</f>
+        <v>50</v>
+      </c>
+      <c r="N22" s="2">
+        <v>72</v>
+      </c>
+      <c r="O22" s="3">
+        <f>N23+1</f>
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
+        <v>6</v>
+      </c>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18">
+        <v>9</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <f>L22+1</f>
+        <v>49</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" ref="M23" si="6">M22+1</f>
+        <v>51</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23" si="7">N22+1</f>
+        <v>73</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" ref="O23" si="8">O22+1</f>
+        <v>75</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="Y23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC23" s="6">
+        <f>Nbx*Nnbx</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>56</v>
+      </c>
+      <c r="M24" s="3">
+        <f>L25+1</f>
+        <v>58</v>
+      </c>
+      <c r="N24" s="2">
+        <v>80</v>
+      </c>
+      <c r="O24" s="3">
+        <f>N25+1</f>
+        <v>82</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="18">
+        <v>7</v>
+      </c>
+      <c r="T24" s="19"/>
+      <c r="U24" s="18">
+        <v>10</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="Y24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="6">
+        <f>Nby*Nnby</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4">
+        <f>L24+1</f>
+        <v>57</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ref="M25" si="9">M24+1</f>
+        <v>59</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" ref="N25" si="10">N24+1</f>
+        <v>81</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25" si="11">O24+1</f>
+        <v>83</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21"/>
+      <c r="Y25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="6">
+        <f>Nbz*Nnbz</f>
+        <v>6</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF25" s="6">
+        <f>AC25*AC24</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>64</v>
+      </c>
+      <c r="M26" s="3">
+        <f>L27+1</f>
+        <v>66</v>
+      </c>
+      <c r="N26" s="2">
+        <f>O34+1</f>
+        <v>88</v>
+      </c>
+      <c r="O26" s="3">
+        <f>N27+1</f>
+        <v>90</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26" s="18">
+        <v>8</v>
+      </c>
+      <c r="T26" s="19"/>
+      <c r="U26" s="18">
+        <v>11</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="Y26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
+        <f>L26+1</f>
+        <v>65</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" ref="M27" si="12">M26+1</f>
+        <v>67</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27" si="13">N26+1</f>
+        <v>89</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" ref="O27" si="14">O26+1</f>
+        <v>91</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="Y27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="Y28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <f>M23+1</f>
+        <v>52</v>
+      </c>
+      <c r="M31" s="3">
+        <f>L32+1</f>
+        <v>54</v>
+      </c>
+      <c r="N31" s="2">
+        <f>O23+1</f>
+        <v>76</v>
+      </c>
+      <c r="O31" s="3">
+        <f>N32+1</f>
+        <v>78</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
+        <v>6</v>
+      </c>
+      <c r="T31" s="19"/>
+      <c r="U31" s="18">
+        <v>9</v>
+      </c>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32" si="15">L31+1</f>
+        <v>53</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32" si="16">M31+1</f>
+        <v>55</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" ref="N32" si="17">N31+1</f>
+        <v>77</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" ref="O32" si="18">O31+1</f>
+        <v>79</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2">
+        <f>M25+1</f>
+        <v>60</v>
+      </c>
+      <c r="M33" s="3">
+        <f>L34+1</f>
+        <v>62</v>
+      </c>
+      <c r="N33" s="2">
+        <f>O25+1</f>
+        <v>84</v>
+      </c>
+      <c r="O33" s="3">
+        <f>N34+1</f>
+        <v>86</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="18">
+        <v>7</v>
+      </c>
+      <c r="T33" s="19"/>
+      <c r="U33" s="18">
+        <v>10</v>
+      </c>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34" si="19">L33+1</f>
+        <v>61</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" ref="M34" si="20">M33+1</f>
+        <v>63</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" ref="N34" si="21">N33+1</f>
+        <v>85</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" ref="O34" si="22">O33+1</f>
+        <v>87</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="21"/>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2">
+        <f>M27+1</f>
+        <v>68</v>
+      </c>
+      <c r="M35" s="3">
+        <f>L36+1</f>
+        <v>70</v>
+      </c>
+      <c r="N35" s="2">
+        <f>O27+1</f>
+        <v>92</v>
+      </c>
+      <c r="O35" s="3">
+        <f>N36+1</f>
+        <v>94</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2</v>
+      </c>
+      <c r="S35" s="18">
+        <v>8</v>
+      </c>
+      <c r="T35" s="19"/>
+      <c r="U35" s="18">
+        <v>11</v>
+      </c>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" ref="L36" si="23">L35+1</f>
+        <v>69</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" ref="M36" si="24">M35+1</f>
+        <v>71</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" ref="N36" si="25">N35+1</f>
+        <v>93</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" ref="O36" si="26">O35+1</f>
+        <v>95</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="21"/>
+    </row>
+    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PhysField3D/Indexes.xlsx
+++ b/PhysField3D/Indexes.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>z</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Nzy</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -912,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DQ37"/>
+  <dimension ref="A1:DQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +967,393 @@
       <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="BV1" s="29"/>
+      <c r="Y1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="6">
+        <f>Z7+2*Z6+3*Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="6">
+        <f t="shared" ref="AA1:CL1" si="0">AA7+2*AA6+3*AA5</f>
+        <v>1</v>
+      </c>
+      <c r="AB1" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC1" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AD1" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE1" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AF1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AH1" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI1" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AK1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AN1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AO1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AP1" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AR1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AS1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AT1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AU1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AV1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AW1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AX1" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AY1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BA1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BB1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BC1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BD1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BE1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BF1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BG1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BH1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BI1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BJ1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BK1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BL1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BM1" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BN1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BO1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BP1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BQ1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BR1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BS1" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BT1" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BU1" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BV1" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BW1" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BX1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BY1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BZ1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="CA1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="CB1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="CC1" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="CD1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="CE1" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="CF1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="CG1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="CH1" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="CI1" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="CJ1" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="CK1" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="CL1" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="CM1" s="6">
+        <f t="shared" ref="CM1:DQ1" si="1">CM7+2*CM6+3*CM5</f>
+        <v>11</v>
+      </c>
+      <c r="CN1" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="CO1" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CP1" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CQ1" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="CR1" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="CS1" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="CT1" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="CU1" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="CV1" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="CW1" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CX1" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CY1" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="CZ1" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="DA1" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="DB1" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="DC1" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="DD1" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="DE1" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="DF1" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="DG1" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="DH1" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="DI1" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="DJ1" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="DK1" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="DL1" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="DM1" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="DN1" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="DO1" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="DP1" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="DQ1" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1074,387 +1463,387 @@
         <v>8</v>
       </c>
       <c r="Z3" s="25">
-        <f>Z10*(Nnbx*Nnby*Nnbz)+Z18</f>
+        <f t="shared" ref="Z3:BE3" si="2">Z10*(Nnbx*Nnby*Nnbz)+Z18</f>
         <v>0</v>
       </c>
       <c r="AA3" s="26">
-        <f>AA10*(Nnbx*Nnby*Nnbz)+AA18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB3" s="26">
-        <f>AB10*(Nnbx*Nnby*Nnbz)+AB18</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC3" s="26">
-        <f>AC10*(Nnbx*Nnby*Nnbz)+AC18</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD3" s="26">
-        <f>AD10*(Nnbx*Nnby*Nnbz)+AD18</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AE3" s="26">
-        <f>AE10*(Nnbx*Nnby*Nnbz)+AE18</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AF3" s="26">
-        <f>AF10*(Nnbx*Nnby*Nnbz)+AF18</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AG3" s="27">
-        <f>AG10*(Nnbx*Nnby*Nnbz)+AG18</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AH3" s="25">
-        <f>AH10*(Nnbx*Nnby*Nnbz)+AH18</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AI3" s="26">
-        <f>AI10*(Nnbx*Nnby*Nnbz)+AI18</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AJ3" s="26">
-        <f>AJ10*(Nnbx*Nnby*Nnbz)+AJ18</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AK3" s="26">
-        <f>AK10*(Nnbx*Nnby*Nnbz)+AK18</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AL3" s="26">
-        <f>AL10*(Nnbx*Nnby*Nnbz)+AL18</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AM3" s="26">
-        <f>AM10*(Nnbx*Nnby*Nnbz)+AM18</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AN3" s="26">
-        <f>AN10*(Nnbx*Nnby*Nnbz)+AN18</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AO3" s="27">
-        <f>AO10*(Nnbx*Nnby*Nnbz)+AO18</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AP3" s="25">
-        <f>AP10*(Nnbx*Nnby*Nnbz)+AP18</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AQ3" s="26">
-        <f>AQ10*(Nnbx*Nnby*Nnbz)+AQ18</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AR3" s="26">
-        <f>AR10*(Nnbx*Nnby*Nnbz)+AR18</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AS3" s="26">
-        <f>AS10*(Nnbx*Nnby*Nnbz)+AS18</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AT3" s="26">
-        <f>AT10*(Nnbx*Nnby*Nnbz)+AT18</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AU3" s="26">
-        <f>AU10*(Nnbx*Nnby*Nnbz)+AU18</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AV3" s="26">
-        <f>AV10*(Nnbx*Nnby*Nnbz)+AV18</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AW3" s="27">
-        <f>AW10*(Nnbx*Nnby*Nnbz)+AW18</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AX3" s="25">
-        <f>AX10*(Nnbx*Nnby*Nnbz)+AX18</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AY3" s="26">
-        <f>AY10*(Nnbx*Nnby*Nnbz)+AY18</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AZ3" s="26">
-        <f>AZ10*(Nnbx*Nnby*Nnbz)+AZ18</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="BA3" s="26">
-        <f>BA10*(Nnbx*Nnby*Nnbz)+BA18</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="BB3" s="26">
-        <f>BB10*(Nnbx*Nnby*Nnbz)+BB18</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="BC3" s="26">
-        <f>BC10*(Nnbx*Nnby*Nnbz)+BC18</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="BD3" s="26">
-        <f>BD10*(Nnbx*Nnby*Nnbz)+BD18</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="BE3" s="27">
-        <f>BE10*(Nnbx*Nnby*Nnbz)+BE18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="BF3" s="25">
-        <f>BF10*(Nnbx*Nnby*Nnbz)+BF18</f>
+        <f t="shared" ref="BF3:CK3" si="3">BF10*(Nnbx*Nnby*Nnbz)+BF18</f>
         <v>32</v>
       </c>
       <c r="BG3" s="26">
-        <f>BG10*(Nnbx*Nnby*Nnbz)+BG18</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="BH3" s="26">
-        <f>BH10*(Nnbx*Nnby*Nnbz)+BH18</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="BI3" s="26">
-        <f>BI10*(Nnbx*Nnby*Nnbz)+BI18</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="BJ3" s="26">
-        <f>BJ10*(Nnbx*Nnby*Nnbz)+BJ18</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="BK3" s="26">
-        <f>BK10*(Nnbx*Nnby*Nnbz)+BK18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="BL3" s="26">
-        <f>BL10*(Nnbx*Nnby*Nnbz)+BL18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="BM3" s="27">
-        <f>BM10*(Nnbx*Nnby*Nnbz)+BM18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="BN3" s="25">
-        <f>BN10*(Nnbx*Nnby*Nnbz)+BN18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="BO3" s="26">
-        <f>BO10*(Nnbx*Nnby*Nnbz)+BO18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="BP3" s="26">
-        <f>BP10*(Nnbx*Nnby*Nnbz)+BP18</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="BQ3" s="26">
-        <f>BQ10*(Nnbx*Nnby*Nnbz)+BQ18</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="BR3" s="26">
-        <f>BR10*(Nnbx*Nnby*Nnbz)+BR18</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="BS3" s="26">
-        <f>BS10*(Nnbx*Nnby*Nnbz)+BS18</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="BT3" s="26">
-        <f>BT10*(Nnbx*Nnby*Nnbz)+BT18</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="BU3" s="27">
-        <f>BU10*(Nnbx*Nnby*Nnbz)+BU18</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="BV3" s="25">
-        <f>BV10*(Nnbx*Nnby*Nnbz)+BV18</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="BW3" s="26">
-        <f>BW10*(Nnbx*Nnby*Nnbz)+BW18</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="BX3" s="26">
-        <f>BX10*(Nnbx*Nnby*Nnbz)+BX18</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="BY3" s="26">
-        <f>BY10*(Nnbx*Nnby*Nnbz)+BY18</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="BZ3" s="26">
-        <f>BZ10*(Nnbx*Nnby*Nnbz)+BZ18</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="CA3" s="26">
-        <f>CA10*(Nnbx*Nnby*Nnbz)+CA18</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="CB3" s="26">
-        <f>CB10*(Nnbx*Nnby*Nnbz)+CB18</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="CC3" s="27">
-        <f>CC10*(Nnbx*Nnby*Nnbz)+CC18</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="CD3" s="25">
-        <f>CD10*(Nnbx*Nnby*Nnbz)+CD18</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="CE3" s="26">
-        <f>CE10*(Nnbx*Nnby*Nnbz)+CE18</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="CF3" s="26">
-        <f>CF10*(Nnbx*Nnby*Nnbz)+CF18</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="CG3" s="26">
-        <f>CG10*(Nnbx*Nnby*Nnbz)+CG18</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="CH3" s="26">
-        <f>CH10*(Nnbx*Nnby*Nnbz)+CH18</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="CI3" s="26">
-        <f>CI10*(Nnbx*Nnby*Nnbz)+CI18</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="CJ3" s="26">
-        <f>CJ10*(Nnbx*Nnby*Nnbz)+CJ18</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="CK3" s="27">
-        <f>CK10*(Nnbx*Nnby*Nnbz)+CK18</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="CL3" s="25">
-        <f>CL10*(Nnbx*Nnby*Nnbz)+CL18</f>
+        <f t="shared" ref="CL3:DQ3" si="4">CL10*(Nnbx*Nnby*Nnbz)+CL18</f>
         <v>64</v>
       </c>
       <c r="CM3" s="26">
-        <f>CM10*(Nnbx*Nnby*Nnbz)+CM18</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="CN3" s="26">
-        <f>CN10*(Nnbx*Nnby*Nnbz)+CN18</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="CO3" s="26">
-        <f>CO10*(Nnbx*Nnby*Nnbz)+CO18</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="CP3" s="26">
-        <f>CP10*(Nnbx*Nnby*Nnbz)+CP18</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="CQ3" s="26">
-        <f>CQ10*(Nnbx*Nnby*Nnbz)+CQ18</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="CR3" s="26">
-        <f>CR10*(Nnbx*Nnby*Nnbz)+CR18</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="CS3" s="27">
-        <f>CS10*(Nnbx*Nnby*Nnbz)+CS18</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="CT3" s="25">
-        <f>CT10*(Nnbx*Nnby*Nnbz)+CT18</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="CU3" s="26">
-        <f>CU10*(Nnbx*Nnby*Nnbz)+CU18</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="CV3" s="26">
-        <f>CV10*(Nnbx*Nnby*Nnbz)+CV18</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="CW3" s="26">
-        <f>CW10*(Nnbx*Nnby*Nnbz)+CW18</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="CX3" s="26">
-        <f>CX10*(Nnbx*Nnby*Nnbz)+CX18</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="CY3" s="26">
-        <f>CY10*(Nnbx*Nnby*Nnbz)+CY18</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="CZ3" s="26">
-        <f>CZ10*(Nnbx*Nnby*Nnbz)+CZ18</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="DA3" s="27">
-        <f>DA10*(Nnbx*Nnby*Nnbz)+DA18</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="DB3" s="25">
-        <f>DB10*(Nnbx*Nnby*Nnbz)+DB18</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="DC3" s="26">
-        <f>DC10*(Nnbx*Nnby*Nnbz)+DC18</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="DD3" s="26">
-        <f>DD10*(Nnbx*Nnby*Nnbz)+DD18</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="DE3" s="26">
-        <f>DE10*(Nnbx*Nnby*Nnbz)+DE18</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="DF3" s="26">
-        <f>DF10*(Nnbx*Nnby*Nnbz)+DF18</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="DG3" s="26">
-        <f>DG10*(Nnbx*Nnby*Nnbz)+DG18</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="DH3" s="26">
-        <f>DH10*(Nnbx*Nnby*Nnbz)+DH18</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="DI3" s="27">
-        <f>DI10*(Nnbx*Nnby*Nnbz)+DI18</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="DJ3" s="25">
-        <f>DJ10*(Nnbx*Nnby*Nnbz)+DJ18</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="DK3" s="26">
-        <f>DK10*(Nnbx*Nnby*Nnbz)+DK18</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="DL3" s="26">
-        <f>DL10*(Nnbx*Nnby*Nnbz)+DL18</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="DM3" s="26">
-        <f>DM10*(Nnbx*Nnby*Nnbz)+DM18</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="DN3" s="26">
-        <f>DN10*(Nnbx*Nnby*Nnbz)+DN18</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="DO3" s="26">
-        <f>DO10*(Nnbx*Nnby*Nnbz)+DO18</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="DP3" s="26">
-        <f>DP10*(Nnbx*Nnby*Nnbz)+DP18</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="DQ3" s="27">
-        <f>DQ10*(Nnbx*Nnby*Nnbz)+DQ18</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -1482,15 +1871,15 @@
         <v>1</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:O4" si="0">M3+1</f>
+        <f t="shared" ref="M4:O4" si="5">M3+1</f>
         <v>3</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="P4" s="17"/>
@@ -1876,15 +2265,15 @@
         <v>9</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" ref="M6:O6" si="1">M5+1</f>
+        <f t="shared" ref="M6:O6" si="6">M5+1</f>
         <v>11</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="P6" s="17"/>
@@ -2539,15 +2928,15 @@
         <v>17</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" ref="M8:O8" si="2">M7+1</f>
+        <f t="shared" ref="M8:O8" si="7">M7+1</f>
         <v>19</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="P8" s="17"/>
@@ -2631,387 +3020,387 @@
         <v>12</v>
       </c>
       <c r="Z10" s="14">
-        <f>Z13+Z12*Nbz+Z11*Nby*Nbz</f>
+        <f t="shared" ref="Z10:BE10" si="8">Z13+Z12*Nbz+Z11*Nby*Nbz</f>
         <v>0</v>
       </c>
       <c r="AA10" s="15">
-        <f>AA13+AA12*Nbz+AA11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
-        <f>AB13+AB12*Nbz+AB11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC10" s="15">
-        <f>AC13+AC12*Nbz+AC11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD10" s="15">
-        <f>AD13+AD12*Nbz+AD11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE10" s="15">
-        <f>AE13+AE12*Nbz+AE11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF10" s="15">
-        <f>AF13+AF12*Nbz+AF11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG10" s="15">
-        <f>AG13+AG12*Nbz+AG11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH10" s="14">
-        <f>AH13+AH12*Nbz+AH11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AI10" s="15">
-        <f>AI13+AI12*Nbz+AI11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="15">
-        <f>AJ13+AJ12*Nbz+AJ11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AK10" s="15">
-        <f>AK13+AK12*Nbz+AK11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AL10" s="15">
-        <f>AL13+AL12*Nbz+AL11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM10" s="15">
-        <f>AM13+AM12*Nbz+AM11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AN10" s="15">
-        <f>AN13+AN12*Nbz+AN11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AO10" s="16">
-        <f>AO13+AO12*Nbz+AO11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP10" s="14">
-        <f>AP13+AP12*Nbz+AP11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AQ10" s="15">
-        <f>AQ13+AQ12*Nbz+AQ11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AR10" s="15">
-        <f>AR13+AR12*Nbz+AR11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AS10" s="15">
-        <f>AS13+AS12*Nbz+AS11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AT10" s="15">
-        <f>AT13+AT12*Nbz+AT11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AU10" s="15">
-        <f>AU13+AU12*Nbz+AU11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AV10" s="15">
-        <f>AV13+AV12*Nbz+AV11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AW10" s="16">
-        <f>AW13+AW12*Nbz+AW11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AX10" s="14">
-        <f>AX13+AX12*Nbz+AX11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AY10" s="15">
-        <f>AY13+AY12*Nbz+AY11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AZ10" s="15">
-        <f>AZ13+AZ12*Nbz+AZ11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BA10" s="15">
-        <f>BA13+BA12*Nbz+BA11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BB10" s="15">
-        <f>BB13+BB12*Nbz+BB11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BC10" s="15">
-        <f>BC13+BC12*Nbz+BC11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD10" s="15">
-        <f>BD13+BD12*Nbz+BD11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BE10" s="16">
-        <f>BE13+BE12*Nbz+BE11*Nby*Nbz</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BF10" s="14">
-        <f>BF13+BF12*Nbz+BF11*Nby*Nbz</f>
+        <f t="shared" ref="BF10:CK10" si="9">BF13+BF12*Nbz+BF11*Nby*Nbz</f>
         <v>4</v>
       </c>
       <c r="BG10" s="15">
-        <f>BG13+BG12*Nbz+BG11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BH10" s="15">
-        <f>BH13+BH12*Nbz+BH11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BI10" s="15">
-        <f>BI13+BI12*Nbz+BI11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BJ10" s="15">
-        <f>BJ13+BJ12*Nbz+BJ11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BK10" s="15">
-        <f>BK13+BK12*Nbz+BK11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BL10" s="15">
-        <f>BL13+BL12*Nbz+BL11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BM10" s="16">
-        <f>BM13+BM12*Nbz+BM11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BN10" s="14">
-        <f>BN13+BN12*Nbz+BN11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BO10" s="15">
-        <f>BO13+BO12*Nbz+BO11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BP10" s="15">
-        <f>BP13+BP12*Nbz+BP11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BQ10" s="15">
-        <f>BQ13+BQ12*Nbz+BQ11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BR10" s="15">
-        <f>BR13+BR12*Nbz+BR11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BS10" s="15">
-        <f>BS13+BS12*Nbz+BS11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BT10" s="15">
-        <f>BT13+BT12*Nbz+BT11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BU10" s="16">
-        <f>BU13+BU12*Nbz+BU11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="BV10" s="14">
-        <f>BV13+BV12*Nbz+BV11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BW10" s="15">
-        <f>BW13+BW12*Nbz+BW11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BX10" s="15">
-        <f>BX13+BX12*Nbz+BX11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BY10" s="15">
-        <f>BY13+BY12*Nbz+BY11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BZ10" s="15">
-        <f>BZ13+BZ12*Nbz+BZ11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="CA10" s="15">
-        <f>CA13+CA12*Nbz+CA11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="CB10" s="15">
-        <f>CB13+CB12*Nbz+CB11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="CC10" s="15">
-        <f>CC13+CC12*Nbz+CC11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="CD10" s="14">
-        <f>CD13+CD12*Nbz+CD11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CE10" s="15">
-        <f>CE13+CE12*Nbz+CE11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CF10" s="15">
-        <f>CF13+CF12*Nbz+CF11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CG10" s="15">
-        <f>CG13+CG12*Nbz+CG11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CH10" s="15">
-        <f>CH13+CH12*Nbz+CH11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CI10" s="15">
-        <f>CI13+CI12*Nbz+CI11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CJ10" s="15">
-        <f>CJ13+CJ12*Nbz+CJ11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CK10" s="16">
-        <f>CK13+CK12*Nbz+CK11*Nby*Nbz</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="CL10" s="14">
-        <f>CL13+CL12*Nbz+CL11*Nby*Nbz</f>
+        <f t="shared" ref="CL10:DQ10" si="10">CL13+CL12*Nbz+CL11*Nby*Nbz</f>
         <v>8</v>
       </c>
       <c r="CM10" s="15">
-        <f>CM13+CM12*Nbz+CM11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CN10" s="15">
-        <f>CN13+CN12*Nbz+CN11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CO10" s="15">
-        <f>CO13+CO12*Nbz+CO11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CP10" s="15">
-        <f>CP13+CP12*Nbz+CP11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CQ10" s="15">
-        <f>CQ13+CQ12*Nbz+CQ11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CR10" s="15">
-        <f>CR13+CR12*Nbz+CR11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CS10" s="16">
-        <f>CS13+CS12*Nbz+CS11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="CT10" s="14">
-        <f>CT13+CT12*Nbz+CT11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CU10" s="15">
-        <f>CU13+CU12*Nbz+CU11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CV10" s="15">
-        <f>CV13+CV12*Nbz+CV11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CW10" s="15">
-        <f>CW13+CW12*Nbz+CW11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CX10" s="15">
-        <f>CX13+CX12*Nbz+CX11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CY10" s="15">
-        <f>CY13+CY12*Nbz+CY11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="CZ10" s="15">
-        <f>CZ13+CZ12*Nbz+CZ11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="DA10" s="16">
-        <f>DA13+DA12*Nbz+DA11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="DB10" s="14">
-        <f>DB13+DB12*Nbz+DB11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DC10" s="15">
-        <f>DC13+DC12*Nbz+DC11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DD10" s="15">
-        <f>DD13+DD12*Nbz+DD11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DE10" s="15">
-        <f>DE13+DE12*Nbz+DE11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DF10" s="15">
-        <f>DF13+DF12*Nbz+DF11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DG10" s="15">
-        <f>DG13+DG12*Nbz+DG11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DH10" s="15">
-        <f>DH13+DH12*Nbz+DH11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DI10" s="16">
-        <f>DI13+DI12*Nbz+DI11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="DJ10" s="14">
-        <f>DJ13+DJ12*Nbz+DJ11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DK10" s="15">
-        <f>DK13+DK12*Nbz+DK11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DL10" s="15">
-        <f>DL13+DL12*Nbz+DL11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DM10" s="15">
-        <f>DM13+DM12*Nbz+DM11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DN10" s="15">
-        <f>DN13+DN12*Nbz+DN11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DO10" s="15">
-        <f>DO13+DO12*Nbz+DO11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DP10" s="15">
-        <f>DP13+DP12*Nbz+DP11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="DQ10" s="16">
-        <f>DQ13+DQ12*Nbz+DQ11*Nby*Nbz</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
@@ -3066,387 +3455,387 @@
         <v>13</v>
       </c>
       <c r="Z11" s="22">
-        <f>INT(Z5/Nnbx)</f>
+        <f t="shared" ref="Z11:BE11" si="11">INT(Z5/Nnbx)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="23">
-        <f>INT(AA5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB11" s="23">
-        <f>INT(AB5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC11" s="23">
-        <f>INT(AC5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD11" s="23">
-        <f>INT(AD5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE11" s="23">
-        <f>INT(AE5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF11" s="23">
-        <f>INT(AF5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG11" s="23">
-        <f>INT(AG5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH11" s="22">
-        <f>INT(AH5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI11" s="23">
-        <f>INT(AI5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="23">
-        <f>INT(AJ5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK11" s="23">
-        <f>INT(AK5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL11" s="23">
-        <f>INT(AL5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM11" s="23">
-        <f>INT(AM5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN11" s="23">
-        <f>INT(AN5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO11" s="24">
-        <f>INT(AO5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP11" s="22">
-        <f>INT(AP5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="23">
-        <f>INT(AQ5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR11" s="23">
-        <f>INT(AR5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS11" s="23">
-        <f>INT(AS5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT11" s="23">
-        <f>INT(AT5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU11" s="23">
-        <f>INT(AU5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV11" s="23">
-        <f>INT(AV5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW11" s="24">
-        <f>INT(AW5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX11" s="22">
-        <f>INT(AX5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY11" s="23">
-        <f>INT(AY5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="23">
-        <f>INT(AZ5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA11" s="23">
-        <f>INT(BA5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BB11" s="23">
-        <f>INT(BB5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC11" s="23">
-        <f>INT(BC5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD11" s="23">
-        <f>INT(BD5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE11" s="24">
-        <f>INT(BE5/Nnbx)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF11" s="22">
-        <f>INT(BF5/Nnbx)</f>
+        <f t="shared" ref="BF11:CK11" si="12">INT(BF5/Nnbx)</f>
         <v>0</v>
       </c>
       <c r="BG11" s="23">
-        <f>INT(BG5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BH11" s="23">
-        <f>INT(BH5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BI11" s="23">
-        <f>INT(BI5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="23">
-        <f>INT(BJ5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BK11" s="23">
-        <f>INT(BK5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BL11" s="23">
-        <f>INT(BL5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BM11" s="24">
-        <f>INT(BM5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN11" s="22">
-        <f>INT(BN5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BO11" s="23">
-        <f>INT(BO5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BP11" s="23">
-        <f>INT(BP5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="23">
-        <f>INT(BQ5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BR11" s="23">
-        <f>INT(BR5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BS11" s="23">
-        <f>INT(BS5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BT11" s="23">
-        <f>INT(BT5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BU11" s="24">
-        <f>INT(BU5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BV11" s="22">
-        <f>INT(BV5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BW11" s="23">
-        <f>INT(BW5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BX11" s="23">
-        <f>INT(BX5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BY11" s="23">
-        <f>INT(BY5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BZ11" s="23">
-        <f>INT(BZ5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CA11" s="23">
-        <f>INT(CA5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CB11" s="23">
-        <f>INT(CB5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CC11" s="23">
-        <f>INT(CC5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CD11" s="22">
-        <f>INT(CD5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CE11" s="23">
-        <f>INT(CE5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CF11" s="23">
-        <f>INT(CF5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CG11" s="23">
-        <f>INT(CG5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CH11" s="23">
-        <f>INT(CH5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CI11" s="23">
-        <f>INT(CI5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CJ11" s="23">
-        <f>INT(CJ5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CK11" s="24">
-        <f>INT(CK5/Nnbx)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="CL11" s="22">
-        <f>INT(CL5/Nnbx)</f>
+        <f t="shared" ref="CL11:DQ11" si="13">INT(CL5/Nnbx)</f>
         <v>1</v>
       </c>
       <c r="CM11" s="23">
-        <f>INT(CM5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CN11" s="23">
-        <f>INT(CN5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CO11" s="23">
-        <f>INT(CO5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CP11" s="23">
-        <f>INT(CP5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CQ11" s="23">
-        <f>INT(CQ5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CR11" s="23">
-        <f>INT(CR5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CS11" s="24">
-        <f>INT(CS5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CT11" s="22">
-        <f>INT(CT5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CU11" s="23">
-        <f>INT(CU5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CV11" s="23">
-        <f>INT(CV5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CW11" s="23">
-        <f>INT(CW5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CX11" s="23">
-        <f>INT(CX5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CY11" s="23">
-        <f>INT(CY5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CZ11" s="23">
-        <f>INT(CZ5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DA11" s="24">
-        <f>INT(DA5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DB11" s="22">
-        <f>INT(DB5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DC11" s="23">
-        <f>INT(DC5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DD11" s="23">
-        <f>INT(DD5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DE11" s="23">
-        <f>INT(DE5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DF11" s="23">
-        <f>INT(DF5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DG11" s="23">
-        <f>INT(DG5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DH11" s="23">
-        <f>INT(DH5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DI11" s="24">
-        <f>INT(DI5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DJ11" s="22">
-        <f>INT(DJ5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DK11" s="23">
-        <f>INT(DK5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DL11" s="23">
-        <f>INT(DL5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DM11" s="23">
-        <f>INT(DM5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DN11" s="23">
-        <f>INT(DN5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DO11" s="23">
-        <f>INT(DO5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DP11" s="23">
-        <f>INT(DP5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="DQ11" s="24">
-        <f>INT(DQ5/Nnbx)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -3511,387 +3900,387 @@
         <v>14</v>
       </c>
       <c r="Z12" s="22">
-        <f>INT(Z6/Nnby)</f>
+        <f t="shared" ref="Z12:BE12" si="14">INT(Z6/Nnby)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="23">
-        <f>INT(AA6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB12" s="23">
-        <f>INT(AB6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC12" s="23">
-        <f>INT(AC6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD12" s="23">
-        <f>INT(AD6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE12" s="23">
-        <f>INT(AE6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF12" s="23">
-        <f>INT(AF6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG12" s="23">
-        <f>INT(AG6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH12" s="22">
-        <f>INT(AH6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI12" s="23">
-        <f>INT(AI6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="23">
-        <f>INT(AJ6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK12" s="23">
-        <f>INT(AK6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL12" s="23">
-        <f>INT(AL6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM12" s="23">
-        <f>INT(AM6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN12" s="23">
-        <f>INT(AN6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO12" s="24">
-        <f>INT(AO6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP12" s="22">
-        <f>INT(AP6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="23">
-        <f>INT(AQ6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR12" s="23">
-        <f>INT(AR6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS12" s="23">
-        <f>INT(AS6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AT12" s="23">
-        <f>INT(AT6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU12" s="23">
-        <f>INT(AU6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV12" s="23">
-        <f>INT(AV6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW12" s="24">
-        <f>INT(AW6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX12" s="22">
-        <f>INT(AX6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AY12" s="23">
-        <f>INT(AY6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AZ12" s="23">
-        <f>INT(AZ6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BA12" s="23">
-        <f>INT(BA6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BB12" s="23">
-        <f>INT(BB6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BC12" s="23">
-        <f>INT(BC6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BD12" s="23">
-        <f>INT(BD6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BE12" s="24">
-        <f>INT(BE6/Nnby)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BF12" s="22">
-        <f>INT(BF6/Nnby)</f>
+        <f t="shared" ref="BF12:CK12" si="15">INT(BF6/Nnby)</f>
         <v>1</v>
       </c>
       <c r="BG12" s="23">
-        <f>INT(BG6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BH12" s="23">
-        <f>INT(BH6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BI12" s="23">
-        <f>INT(BI6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BJ12" s="23">
-        <f>INT(BJ6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BK12" s="23">
-        <f>INT(BK6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BL12" s="23">
-        <f>INT(BL6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BM12" s="24">
-        <f>INT(BM6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BN12" s="22">
-        <f>INT(BN6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BO12" s="23">
-        <f>INT(BO6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BP12" s="23">
-        <f>INT(BP6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BQ12" s="23">
-        <f>INT(BQ6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BR12" s="23">
-        <f>INT(BR6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BS12" s="23">
-        <f>INT(BS6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BT12" s="23">
-        <f>INT(BT6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BU12" s="24">
-        <f>INT(BU6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BV12" s="22">
-        <f>INT(BV6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BW12" s="23">
-        <f>INT(BW6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BX12" s="23">
-        <f>INT(BX6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BY12" s="23">
-        <f>INT(BY6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BZ12" s="23">
-        <f>INT(BZ6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CA12" s="23">
-        <f>INT(CA6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CB12" s="23">
-        <f>INT(CB6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CC12" s="23">
-        <f>INT(CC6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CD12" s="22">
-        <f>INT(CD6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CE12" s="23">
-        <f>INT(CE6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CF12" s="23">
-        <f>INT(CF6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CG12" s="23">
-        <f>INT(CG6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CH12" s="23">
-        <f>INT(CH6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CI12" s="23">
-        <f>INT(CI6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CJ12" s="23">
-        <f>INT(CJ6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CK12" s="24">
-        <f>INT(CK6/Nnby)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CL12" s="22">
-        <f>INT(CL6/Nnby)</f>
+        <f t="shared" ref="CL12:DQ12" si="16">INT(CL6/Nnby)</f>
         <v>0</v>
       </c>
       <c r="CM12" s="23">
-        <f>INT(CM6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CN12" s="23">
-        <f>INT(CN6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CO12" s="23">
-        <f>INT(CO6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CP12" s="23">
-        <f>INT(CP6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CQ12" s="23">
-        <f>INT(CQ6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CR12" s="23">
-        <f>INT(CR6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CS12" s="24">
-        <f>INT(CS6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CT12" s="22">
-        <f>INT(CT6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CU12" s="23">
-        <f>INT(CU6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CV12" s="23">
-        <f>INT(CV6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CW12" s="23">
-        <f>INT(CW6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CX12" s="23">
-        <f>INT(CX6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CY12" s="23">
-        <f>INT(CY6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CZ12" s="23">
-        <f>INT(CZ6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DA12" s="24">
-        <f>INT(DA6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DB12" s="22">
-        <f>INT(DB6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DC12" s="23">
-        <f>INT(DC6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DD12" s="23">
-        <f>INT(DD6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DE12" s="23">
-        <f>INT(DE6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DF12" s="23">
-        <f>INT(DF6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DG12" s="23">
-        <f>INT(DG6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DH12" s="23">
-        <f>INT(DH6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DI12" s="24">
-        <f>INT(DI6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DJ12" s="22">
-        <f>INT(DJ6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DK12" s="23">
-        <f>INT(DK6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DL12" s="23">
-        <f>INT(DL6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DM12" s="23">
-        <f>INT(DM6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DN12" s="23">
-        <f>INT(DN6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DO12" s="23">
-        <f>INT(DO6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DP12" s="23">
-        <f>INT(DP6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="DQ12" s="24">
-        <f>INT(DQ6/Nnby)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -3915,19 +4304,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="L13:O13" si="3">L12+1</f>
+        <f t="shared" ref="L13:O13" si="17">L12+1</f>
         <v>5</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="P13" s="17"/>
@@ -3944,387 +4333,387 @@
         <v>15</v>
       </c>
       <c r="Z13" s="11">
-        <f>INT(Z7/Nnbz)</f>
+        <f t="shared" ref="Z13:BE13" si="18">INT(Z7/Nnbz)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="12">
-        <f>INT(AA7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB13" s="12">
-        <f>INT(AB7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC13" s="12">
-        <f>INT(AC7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD13" s="12">
-        <f>INT(AD7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE13" s="12">
-        <f>INT(AE7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF13" s="12">
-        <f>INT(AF7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG13" s="12">
-        <f>INT(AG7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <f>INT(AH7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AI13" s="12">
-        <f>INT(AI7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AJ13" s="12">
-        <f>INT(AJ7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AK13" s="12">
-        <f>INT(AK7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AL13" s="12">
-        <f>INT(AL7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AM13" s="12">
-        <f>INT(AM7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AN13" s="12">
-        <f>INT(AN7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO13" s="13">
-        <f>INT(AO7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AP13" s="11">
-        <f>INT(AP7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AQ13" s="12">
-        <f>INT(AQ7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AR13" s="12">
-        <f>INT(AR7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AS13" s="12">
-        <f>INT(AS7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AT13" s="12">
-        <f>INT(AT7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AU13" s="12">
-        <f>INT(AU7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AV13" s="12">
-        <f>INT(AV7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AW13" s="13">
-        <f>INT(AW7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AX13" s="11">
-        <f>INT(AX7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY13" s="12">
-        <f>INT(AY7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ13" s="12">
-        <f>INT(AZ7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA13" s="12">
-        <f>INT(BA7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB13" s="12">
-        <f>INT(BB7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC13" s="12">
-        <f>INT(BC7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD13" s="12">
-        <f>INT(BD7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE13" s="13">
-        <f>INT(BE7/Nnbz)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF13" s="11">
-        <f>INT(BF7/Nnbz)</f>
+        <f t="shared" ref="BF13:CK13" si="19">INT(BF7/Nnbz)</f>
         <v>1</v>
       </c>
       <c r="BG13" s="12">
-        <f>INT(BG7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BH13" s="12">
-        <f>INT(BH7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BI13" s="12">
-        <f>INT(BI7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BJ13" s="12">
-        <f>INT(BJ7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BK13" s="12">
-        <f>INT(BK7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BL13" s="12">
-        <f>INT(BL7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BM13" s="13">
-        <f>INT(BM7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BN13" s="11">
-        <f>INT(BN7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BO13" s="12">
-        <f>INT(BO7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BP13" s="12">
-        <f>INT(BP7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BQ13" s="12">
-        <f>INT(BQ7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BR13" s="12">
-        <f>INT(BR7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BS13" s="12">
-        <f>INT(BS7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BT13" s="12">
-        <f>INT(BT7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BU13" s="13">
-        <f>INT(BU7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BV13" s="11">
-        <f>INT(BV7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BW13" s="12">
-        <f>INT(BW7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BX13" s="12">
-        <f>INT(BX7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BY13" s="12">
-        <f>INT(BY7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BZ13" s="12">
-        <f>INT(BZ7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CA13" s="12">
-        <f>INT(CA7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CB13" s="12">
-        <f>INT(CB7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CC13" s="12">
-        <f>INT(CC7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="CD13" s="11">
-        <f>INT(CD7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CE13" s="12">
-        <f>INT(CE7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CF13" s="12">
-        <f>INT(CF7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CG13" s="12">
-        <f>INT(CG7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CH13" s="12">
-        <f>INT(CH7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CI13" s="12">
-        <f>INT(CI7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CJ13" s="12">
-        <f>INT(CJ7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CK13" s="13">
-        <f>INT(CK7/Nnbz)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="CL13" s="11">
-        <f>INT(CL7/Nnbz)</f>
+        <f t="shared" ref="CL13:DQ13" si="20">INT(CL7/Nnbz)</f>
         <v>2</v>
       </c>
       <c r="CM13" s="12">
-        <f>INT(CM7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CN13" s="12">
-        <f>INT(CN7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CO13" s="12">
-        <f>INT(CO7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CP13" s="12">
-        <f>INT(CP7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CQ13" s="12">
-        <f>INT(CQ7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CR13" s="12">
-        <f>INT(CR7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CS13" s="13">
-        <f>INT(CS7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CT13" s="11">
-        <f>INT(CT7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CU13" s="12">
-        <f>INT(CU7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CV13" s="12">
-        <f>INT(CV7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CW13" s="12">
-        <f>INT(CW7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CX13" s="12">
-        <f>INT(CX7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CY13" s="12">
-        <f>INT(CY7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CZ13" s="12">
-        <f>INT(CZ7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DA13" s="13">
-        <f>INT(DA7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="DB13" s="11">
-        <f>INT(DB7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DC13" s="12">
-        <f>INT(DC7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DD13" s="12">
-        <f>INT(DD7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DE13" s="12">
-        <f>INT(DE7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DF13" s="12">
-        <f>INT(DF7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DG13" s="12">
-        <f>INT(DG7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DH13" s="12">
-        <f>INT(DH7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DI13" s="13">
-        <f>INT(DI7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="DJ13" s="11">
-        <f>INT(DJ7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DK13" s="12">
-        <f>INT(DK7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DL13" s="12">
-        <f>INT(DL7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DM13" s="12">
-        <f>INT(DM7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DN13" s="12">
-        <f>INT(DN7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DO13" s="12">
-        <f>INT(DO7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DP13" s="12">
-        <f>INT(DP7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="DQ13" s="13">
-        <f>INT(DQ7/Nnbz)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
@@ -4460,19 +4849,19 @@
         <v>3</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" ref="L15:O15" si="4">L14+1</f>
+        <f t="shared" ref="L15:O15" si="21">L14+1</f>
         <v>13</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="P15" s="17"/>
@@ -4542,19 +4931,19 @@
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" ref="L17:O17" si="5">L16+1</f>
+        <f t="shared" ref="L17:O17" si="22">L16+1</f>
         <v>21</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="P17" s="17"/>
@@ -4596,387 +4985,387 @@
         <v>23</v>
       </c>
       <c r="Z18" s="14">
-        <f>Z21+Z20*Nnbz+Z19*Nnbz*Nnby</f>
+        <f t="shared" ref="Z18:BE18" si="23">Z21+Z20*Nnbz+Z19*Nnbz*Nnby</f>
         <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <f>AA21+AA20*Nnbz+AA19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AB18" s="15">
-        <f>AB21+AB20*Nnbz+AB19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AC18" s="15">
-        <f>AC21+AC20*Nnbz+AC19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AD18" s="15">
-        <f>AD21+AD20*Nnbz+AD19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AE18" s="15">
-        <f>AE21+AE20*Nnbz+AE19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AF18" s="15">
-        <f>AF21+AF20*Nnbz+AF19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AG18" s="16">
-        <f>AG21+AG20*Nnbz+AG19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AH18" s="14">
-        <f>AH21+AH20*Nnbz+AH19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AI18" s="15">
-        <f>AI21+AI20*Nnbz+AI19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AJ18" s="15">
-        <f>AJ21+AJ20*Nnbz+AJ19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AK18" s="15">
-        <f>AK21+AK20*Nnbz+AK19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AL18" s="15">
-        <f>AL21+AL20*Nnbz+AL19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AM18" s="15">
-        <f>AM21+AM20*Nnbz+AM19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AN18" s="15">
-        <f>AN21+AN20*Nnbz+AN19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AO18" s="16">
-        <f>AO21+AO20*Nnbz+AO19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AP18" s="14">
-        <f>AP21+AP20*Nnbz+AP19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="15">
-        <f>AQ21+AQ20*Nnbz+AQ19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AR18" s="15">
-        <f>AR21+AR20*Nnbz+AR19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AS18" s="15">
-        <f>AS21+AS20*Nnbz+AS19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AT18" s="15">
-        <f>AT21+AT20*Nnbz+AT19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AU18" s="15">
-        <f>AU21+AU20*Nnbz+AU19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AV18" s="15">
-        <f>AV21+AV20*Nnbz+AV19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AW18" s="16">
-        <f>AW21+AW20*Nnbz+AW19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AX18" s="14">
-        <f>AX21+AX20*Nnbz+AX19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AY18" s="15">
-        <f>AY21+AY20*Nnbz+AY19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AZ18" s="15">
-        <f>AZ21+AZ20*Nnbz+AZ19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="BA18" s="15">
-        <f>BA21+BA20*Nnbz+BA19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="BB18" s="15">
-        <f>BB21+BB20*Nnbz+BB19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="BC18" s="15">
-        <f>BC21+BC20*Nnbz+BC19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="BD18" s="15">
-        <f>BD21+BD20*Nnbz+BD19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="BE18" s="16">
-        <f>BE21+BE20*Nnbz+BE19*Nnbz*Nnby</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="BF18" s="14">
-        <f>BF21+BF20*Nnbz+BF19*Nnbz*Nnby</f>
+        <f t="shared" ref="BF18:CK18" si="24">BF21+BF20*Nnbz+BF19*Nnbz*Nnby</f>
         <v>0</v>
       </c>
       <c r="BG18" s="15">
-        <f>BG21+BG20*Nnbz+BG19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="BH18" s="15">
-        <f>BH21+BH20*Nnbz+BH19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="BI18" s="15">
-        <f>BI21+BI20*Nnbz+BI19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="BJ18" s="15">
-        <f>BJ21+BJ20*Nnbz+BJ19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="BK18" s="15">
-        <f>BK21+BK20*Nnbz+BK19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="BL18" s="15">
-        <f>BL21+BL20*Nnbz+BL19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="BM18" s="16">
-        <f>BM21+BM20*Nnbz+BM19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BN18" s="14">
-        <f>BN21+BN20*Nnbz+BN19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BO18" s="15">
-        <f>BO21+BO20*Nnbz+BO19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="BP18" s="15">
-        <f>BP21+BP20*Nnbz+BP19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="BQ18" s="15">
-        <f>BQ21+BQ20*Nnbz+BQ19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="BR18" s="15">
-        <f>BR21+BR20*Nnbz+BR19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="BS18" s="15">
-        <f>BS21+BS20*Nnbz+BS19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="BT18" s="15">
-        <f>BT21+BT20*Nnbz+BT19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="BU18" s="16">
-        <f>BU21+BU20*Nnbz+BU19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BV18" s="14">
-        <f>BV21+BV20*Nnbz+BV19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BW18" s="15">
-        <f>BW21+BW20*Nnbz+BW19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="BX18" s="15">
-        <f>BX21+BX20*Nnbz+BX19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="BY18" s="15">
-        <f>BY21+BY20*Nnbz+BY19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="BZ18" s="15">
-        <f>BZ21+BZ20*Nnbz+BZ19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="CA18" s="15">
-        <f>CA21+CA20*Nnbz+CA19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="CB18" s="15">
-        <f>CB21+CB20*Nnbz+CB19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="CC18" s="16">
-        <f>CC21+CC20*Nnbz+CC19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="CD18" s="14">
-        <f>CD21+CD20*Nnbz+CD19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CE18" s="15">
-        <f>CE21+CE20*Nnbz+CE19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="CF18" s="15">
-        <f>CF21+CF20*Nnbz+CF19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="CG18" s="15">
-        <f>CG21+CG20*Nnbz+CG19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="CH18" s="15">
-        <f>CH21+CH20*Nnbz+CH19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="CI18" s="15">
-        <f>CI21+CI20*Nnbz+CI19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="CJ18" s="15">
-        <f>CJ21+CJ20*Nnbz+CJ19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="CK18" s="16">
-        <f>CK21+CK20*Nnbz+CK19*Nnbz*Nnby</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="CL18" s="14">
-        <f>CL21+CL20*Nnbz+CL19*Nnbz*Nnby</f>
+        <f t="shared" ref="CL18:DQ18" si="25">CL21+CL20*Nnbz+CL19*Nnbz*Nnby</f>
         <v>0</v>
       </c>
       <c r="CM18" s="15">
-        <f>CM21+CM20*Nnbz+CM19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="CN18" s="15">
-        <f>CN21+CN20*Nnbz+CN19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="CO18" s="15">
-        <f>CO21+CO20*Nnbz+CO19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="CP18" s="15">
-        <f>CP21+CP20*Nnbz+CP19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="CQ18" s="15">
-        <f>CQ21+CQ20*Nnbz+CQ19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="CR18" s="15">
-        <f>CR21+CR20*Nnbz+CR19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="CS18" s="16">
-        <f>CS21+CS20*Nnbz+CS19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="CT18" s="14">
-        <f>CT21+CT20*Nnbz+CT19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CU18" s="15">
-        <f>CU21+CU20*Nnbz+CU19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="CV18" s="15">
-        <f>CV21+CV20*Nnbz+CV19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="CW18" s="15">
-        <f>CW21+CW20*Nnbz+CW19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="CX18" s="15">
-        <f>CX21+CX20*Nnbz+CX19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="CY18" s="15">
-        <f>CY21+CY20*Nnbz+CY19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="CZ18" s="15">
-        <f>CZ21+CZ20*Nnbz+CZ19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="DA18" s="16">
-        <f>DA21+DA20*Nnbz+DA19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="DB18" s="14">
-        <f>DB21+DB20*Nnbz+DB19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DC18" s="15">
-        <f>DC21+DC20*Nnbz+DC19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="DD18" s="15">
-        <f>DD21+DD20*Nnbz+DD19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="DE18" s="15">
-        <f>DE21+DE20*Nnbz+DE19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="DF18" s="15">
-        <f>DF21+DF20*Nnbz+DF19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="DG18" s="15">
-        <f>DG21+DG20*Nnbz+DG19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="DH18" s="15">
-        <f>DH21+DH20*Nnbz+DH19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="DI18" s="16">
-        <f>DI21+DI20*Nnbz+DI19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="DJ18" s="14">
-        <f>DJ21+DJ20*Nnbz+DJ19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DK18" s="15">
-        <f>DK21+DK20*Nnbz+DK19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="DL18" s="15">
-        <f>DL21+DL20*Nnbz+DL19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="DM18" s="15">
-        <f>DM21+DM20*Nnbz+DM19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="DN18" s="15">
-        <f>DN21+DN20*Nnbz+DN19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="DO18" s="15">
-        <f>DO21+DO20*Nnbz+DO19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="DP18" s="15">
-        <f>DP21+DP20*Nnbz+DP19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="DQ18" s="16">
-        <f>DQ21+DQ20*Nnbz+DQ19*Nnbz*Nnby</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
     </row>
@@ -5004,387 +5393,387 @@
         <v>24</v>
       </c>
       <c r="Z19" s="22">
-        <f>MOD(Z5,Nnbx)</f>
+        <f t="shared" ref="Z19:BE19" si="26">MOD(Z5,Nnbx)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="23">
-        <f>MOD(AA5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB19" s="23">
-        <f>MOD(AB5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC19" s="23">
-        <f>MOD(AC5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD19" s="23">
-        <f>MOD(AD5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AE19" s="23">
-        <f>MOD(AE5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AF19" s="23">
-        <f>MOD(AF5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG19" s="24">
-        <f>MOD(AG5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AH19" s="22">
-        <f>MOD(AH5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI19" s="23">
-        <f>MOD(AI5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="23">
-        <f>MOD(AJ5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK19" s="23">
-        <f>MOD(AK5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL19" s="23">
-        <f>MOD(AL5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AM19" s="23">
-        <f>MOD(AM5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AN19" s="23">
-        <f>MOD(AN5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AO19" s="24">
-        <f>MOD(AO5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AP19" s="22">
-        <f>MOD(AP5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="23">
-        <f>MOD(AQ5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR19" s="23">
-        <f>MOD(AR5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AS19" s="23">
-        <f>MOD(AS5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AT19" s="23">
-        <f>MOD(AT5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AU19" s="23">
-        <f>MOD(AU5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AV19" s="23">
-        <f>MOD(AV5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AW19" s="24">
-        <f>MOD(AW5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AX19" s="22">
-        <f>MOD(AX5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AY19" s="23">
-        <f>MOD(AY5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="23">
-        <f>MOD(AZ5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA19" s="23">
-        <f>MOD(BA5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BB19" s="23">
-        <f>MOD(BB5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BC19" s="23">
-        <f>MOD(BC5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BD19" s="23">
-        <f>MOD(BD5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BE19" s="24">
-        <f>MOD(BE5,Nnbx)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BF19" s="22">
-        <f>MOD(BF5,Nnbx)</f>
+        <f t="shared" ref="BF19:CK19" si="27">MOD(BF5,Nnbx)</f>
         <v>0</v>
       </c>
       <c r="BG19" s="23">
-        <f>MOD(BG5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BH19" s="23">
-        <f>MOD(BH5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BI19" s="23">
-        <f>MOD(BI5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="23">
-        <f>MOD(BJ5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BK19" s="23">
-        <f>MOD(BK5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BL19" s="23">
-        <f>MOD(BL5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BM19" s="24">
-        <f>MOD(BM5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BN19" s="22">
-        <f>MOD(BN5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BO19" s="23">
-        <f>MOD(BO5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BP19" s="23">
-        <f>MOD(BP5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BQ19" s="23">
-        <f>MOD(BQ5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BR19" s="23">
-        <f>MOD(BR5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BS19" s="23">
-        <f>MOD(BS5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BT19" s="23">
-        <f>MOD(BT5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BU19" s="24">
-        <f>MOD(BU5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BV19" s="22">
-        <f>MOD(BV5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BW19" s="23">
-        <f>MOD(BW5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BX19" s="23">
-        <f>MOD(BX5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BY19" s="23">
-        <f>MOD(BY5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BZ19" s="23">
-        <f>MOD(BZ5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CA19" s="23">
-        <f>MOD(CA5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CB19" s="23">
-        <f>MOD(CB5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CC19" s="24">
-        <f>MOD(CC5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CD19" s="22">
-        <f>MOD(CD5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CE19" s="23">
-        <f>MOD(CE5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CF19" s="23">
-        <f>MOD(CF5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CG19" s="23">
-        <f>MOD(CG5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CH19" s="23">
-        <f>MOD(CH5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CI19" s="23">
-        <f>MOD(CI5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CJ19" s="23">
-        <f>MOD(CJ5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CK19" s="24">
-        <f>MOD(CK5,Nnbx)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="CL19" s="22">
-        <f>MOD(CL5,Nnbx)</f>
+        <f t="shared" ref="CL19:DQ19" si="28">MOD(CL5,Nnbx)</f>
         <v>0</v>
       </c>
       <c r="CM19" s="23">
-        <f>MOD(CM5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CN19" s="23">
-        <f>MOD(CN5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CO19" s="23">
-        <f>MOD(CO5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CP19" s="23">
-        <f>MOD(CP5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CQ19" s="23">
-        <f>MOD(CQ5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CR19" s="23">
-        <f>MOD(CR5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CS19" s="24">
-        <f>MOD(CS5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CT19" s="22">
-        <f>MOD(CT5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CU19" s="23">
-        <f>MOD(CU5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CV19" s="23">
-        <f>MOD(CV5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CW19" s="23">
-        <f>MOD(CW5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CX19" s="23">
-        <f>MOD(CX5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CY19" s="23">
-        <f>MOD(CY5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="CZ19" s="23">
-        <f>MOD(CZ5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DA19" s="24">
-        <f>MOD(DA5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DB19" s="22">
-        <f>MOD(DB5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DC19" s="23">
-        <f>MOD(DC5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DD19" s="23">
-        <f>MOD(DD5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DE19" s="23">
-        <f>MOD(DE5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DF19" s="23">
-        <f>MOD(DF5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DG19" s="23">
-        <f>MOD(DG5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DH19" s="23">
-        <f>MOD(DH5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DI19" s="24">
-        <f>MOD(DI5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DJ19" s="22">
-        <f>MOD(DJ5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DK19" s="23">
-        <f>MOD(DK5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DL19" s="23">
-        <f>MOD(DL5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DM19" s="23">
-        <f>MOD(DM5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DN19" s="23">
-        <f>MOD(DN5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DO19" s="23">
-        <f>MOD(DO5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DP19" s="23">
-        <f>MOD(DP5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="DQ19" s="24">
-        <f>MOD(DQ5,Nnbx)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -5425,387 +5814,387 @@
         <v>25</v>
       </c>
       <c r="Z20" s="22">
-        <f>MOD(Z6,Nnby)</f>
+        <f t="shared" ref="Z20:BE20" si="29">MOD(Z6,Nnby)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <f>MOD(AA6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB20" s="23">
-        <f>MOD(AB6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AC20" s="23">
-        <f>MOD(AC6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AD20" s="23">
-        <f>MOD(AD6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE20" s="23">
-        <f>MOD(AE6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AF20" s="23">
-        <f>MOD(AF6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AG20" s="24">
-        <f>MOD(AG6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AH20" s="22">
-        <f>MOD(AH6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI20" s="23">
-        <f>MOD(AI6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="23">
-        <f>MOD(AJ6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AK20" s="23">
-        <f>MOD(AK6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AL20" s="23">
-        <f>MOD(AL6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM20" s="23">
-        <f>MOD(AM6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN20" s="23">
-        <f>MOD(AN6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AO20" s="24">
-        <f>MOD(AO6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AP20" s="22">
-        <f>MOD(AP6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="23">
-        <f>MOD(AQ6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR20" s="23">
-        <f>MOD(AR6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AS20" s="23">
-        <f>MOD(AS6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AT20" s="23">
-        <f>MOD(AT6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AU20" s="23">
-        <f>MOD(AU6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV20" s="23">
-        <f>MOD(AV6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AW20" s="24">
-        <f>MOD(AW6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AX20" s="22">
-        <f>MOD(AX6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AY20" s="23">
-        <f>MOD(AY6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ20" s="23">
-        <f>MOD(AZ6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BA20" s="23">
-        <f>MOD(BA6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BB20" s="23">
-        <f>MOD(BB6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BC20" s="23">
-        <f>MOD(BC6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD20" s="23">
-        <f>MOD(BD6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BE20" s="24">
-        <f>MOD(BE6,Nnby)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BF20" s="22">
-        <f>MOD(BF6,Nnby)</f>
+        <f t="shared" ref="BF20:CK20" si="30">MOD(BF6,Nnby)</f>
         <v>0</v>
       </c>
       <c r="BG20" s="23">
-        <f>MOD(BG6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BH20" s="23">
-        <f>MOD(BH6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BI20" s="23">
-        <f>MOD(BI6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BJ20" s="23">
-        <f>MOD(BJ6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BK20" s="23">
-        <f>MOD(BK6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BL20" s="23">
-        <f>MOD(BL6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BM20" s="24">
-        <f>MOD(BM6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BN20" s="22">
-        <f>MOD(BN6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BO20" s="23">
-        <f>MOD(BO6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BP20" s="23">
-        <f>MOD(BP6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BQ20" s="23">
-        <f>MOD(BQ6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BR20" s="23">
-        <f>MOD(BR6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BS20" s="23">
-        <f>MOD(BS6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BT20" s="23">
-        <f>MOD(BT6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BU20" s="24">
-        <f>MOD(BU6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BV20" s="22">
-        <f>MOD(BV6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BW20" s="23">
-        <f>MOD(BW6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BX20" s="23">
-        <f>MOD(BX6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BY20" s="23">
-        <f>MOD(BY6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BZ20" s="23">
-        <f>MOD(BZ6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CA20" s="23">
-        <f>MOD(CA6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CB20" s="23">
-        <f>MOD(CB6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CC20" s="24">
-        <f>MOD(CC6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CD20" s="22">
-        <f>MOD(CD6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CE20" s="23">
-        <f>MOD(CE6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CF20" s="23">
-        <f>MOD(CF6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CG20" s="23">
-        <f>MOD(CG6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CH20" s="23">
-        <f>MOD(CH6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CI20" s="23">
-        <f>MOD(CI6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="CJ20" s="23">
-        <f>MOD(CJ6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CK20" s="24">
-        <f>MOD(CK6,Nnby)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="CL20" s="22">
-        <f>MOD(CL6,Nnby)</f>
+        <f t="shared" ref="CL20:DQ20" si="31">MOD(CL6,Nnby)</f>
         <v>0</v>
       </c>
       <c r="CM20" s="23">
-        <f>MOD(CM6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CN20" s="23">
-        <f>MOD(CN6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CO20" s="23">
-        <f>MOD(CO6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CP20" s="23">
-        <f>MOD(CP6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CQ20" s="23">
-        <f>MOD(CQ6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CR20" s="23">
-        <f>MOD(CR6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CS20" s="24">
-        <f>MOD(CS6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CT20" s="22">
-        <f>MOD(CT6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CU20" s="23">
-        <f>MOD(CU6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CV20" s="23">
-        <f>MOD(CV6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CW20" s="23">
-        <f>MOD(CW6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CX20" s="23">
-        <f>MOD(CX6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CY20" s="23">
-        <f>MOD(CY6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CZ20" s="23">
-        <f>MOD(CZ6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DA20" s="24">
-        <f>MOD(DA6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DB20" s="22">
-        <f>MOD(DB6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DC20" s="23">
-        <f>MOD(DC6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DD20" s="23">
-        <f>MOD(DD6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DE20" s="23">
-        <f>MOD(DE6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DF20" s="23">
-        <f>MOD(DF6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DG20" s="23">
-        <f>MOD(DG6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DH20" s="23">
-        <f>MOD(DH6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DI20" s="24">
-        <f>MOD(DI6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DJ20" s="22">
-        <f>MOD(DJ6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DK20" s="23">
-        <f>MOD(DK6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DL20" s="23">
-        <f>MOD(DL6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DM20" s="23">
-        <f>MOD(DM6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DN20" s="23">
-        <f>MOD(DN6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DO20" s="23">
-        <f>MOD(DO6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DP20" s="23">
-        <f>MOD(DP6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="DQ20" s="24">
-        <f>MOD(DQ6,Nnby)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -5858,387 +6247,387 @@
         <v>26</v>
       </c>
       <c r="Z21" s="11">
-        <f>MOD(Z7,Nnbz)</f>
+        <f t="shared" ref="Z21:BE21" si="32">MOD(Z7,Nnbz)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="12">
-        <f>MOD(AA7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB21" s="12">
-        <f>MOD(AB7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC21" s="12">
-        <f>MOD(AC7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AD21" s="12">
-        <f>MOD(AD7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE21" s="12">
-        <f>MOD(AE7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AF21" s="12">
-        <f>MOD(AF7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG21" s="13">
-        <f>MOD(AG7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AH21" s="11">
-        <f>MOD(AH7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AI21" s="12">
-        <f>MOD(AI7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AJ21" s="12">
-        <f>MOD(AJ7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AK21" s="12">
-        <f>MOD(AK7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AL21" s="12">
-        <f>MOD(AL7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AM21" s="12">
-        <f>MOD(AM7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AN21" s="12">
-        <f>MOD(AN7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AO21" s="13">
-        <f>MOD(AO7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AP21" s="11">
-        <f>MOD(AP7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="12">
-        <f>MOD(AQ7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AR21" s="12">
-        <f>MOD(AR7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS21" s="12">
-        <f>MOD(AS7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AT21" s="12">
-        <f>MOD(AT7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AU21" s="12">
-        <f>MOD(AU7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AV21" s="12">
-        <f>MOD(AV7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AW21" s="13">
-        <f>MOD(AW7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AX21" s="11">
-        <f>MOD(AX7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AY21" s="12">
-        <f>MOD(AY7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AZ21" s="12">
-        <f>MOD(AZ7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BA21" s="12">
-        <f>MOD(BA7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="BB21" s="12">
-        <f>MOD(BB7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BC21" s="12">
-        <f>MOD(BC7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="BD21" s="12">
-        <f>MOD(BD7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BE21" s="13">
-        <f>MOD(BE7,Nnbz)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="BF21" s="11">
-        <f>MOD(BF7,Nnbz)</f>
+        <f t="shared" ref="BF21:CK21" si="33">MOD(BF7,Nnbz)</f>
         <v>0</v>
       </c>
       <c r="BG21" s="12">
-        <f>MOD(BG7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BH21" s="12">
-        <f>MOD(BH7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BI21" s="12">
-        <f>MOD(BI7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BJ21" s="12">
-        <f>MOD(BJ7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BK21" s="12">
-        <f>MOD(BK7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BL21" s="12">
-        <f>MOD(BL7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BM21" s="13">
-        <f>MOD(BM7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BN21" s="11">
-        <f>MOD(BN7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BO21" s="12">
-        <f>MOD(BO7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BP21" s="12">
-        <f>MOD(BP7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BQ21" s="12">
-        <f>MOD(BQ7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BR21" s="12">
-        <f>MOD(BR7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BS21" s="12">
-        <f>MOD(BS7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BT21" s="12">
-        <f>MOD(BT7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BU21" s="13">
-        <f>MOD(BU7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BV21" s="11">
-        <f>MOD(BV7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BW21" s="12">
-        <f>MOD(BW7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BX21" s="12">
-        <f>MOD(BX7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BY21" s="12">
-        <f>MOD(BY7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BZ21" s="12">
-        <f>MOD(BZ7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CA21" s="12">
-        <f>MOD(CA7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CB21" s="12">
-        <f>MOD(CB7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CC21" s="13">
-        <f>MOD(CC7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CD21" s="11">
-        <f>MOD(CD7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CE21" s="12">
-        <f>MOD(CE7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CF21" s="12">
-        <f>MOD(CF7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CG21" s="12">
-        <f>MOD(CG7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CH21" s="12">
-        <f>MOD(CH7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CI21" s="12">
-        <f>MOD(CI7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CJ21" s="12">
-        <f>MOD(CJ7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CK21" s="13">
-        <f>MOD(CK7,Nnbz)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="CL21" s="11">
-        <f>MOD(CL7,Nnbz)</f>
+        <f t="shared" ref="CL21:DQ21" si="34">MOD(CL7,Nnbz)</f>
         <v>0</v>
       </c>
       <c r="CM21" s="12">
-        <f>MOD(CM7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CN21" s="12">
-        <f>MOD(CN7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CO21" s="12">
-        <f>MOD(CO7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CP21" s="12">
-        <f>MOD(CP7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CQ21" s="12">
-        <f>MOD(CQ7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CR21" s="12">
-        <f>MOD(CR7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CS21" s="13">
-        <f>MOD(CS7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CT21" s="11">
-        <f>MOD(CT7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CU21" s="12">
-        <f>MOD(CU7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CV21" s="12">
-        <f>MOD(CV7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CW21" s="12">
-        <f>MOD(CW7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CX21" s="12">
-        <f>MOD(CX7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CY21" s="12">
-        <f>MOD(CY7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="CZ21" s="12">
-        <f>MOD(CZ7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DA21" s="13">
-        <f>MOD(DA7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DB21" s="11">
-        <f>MOD(DB7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DC21" s="12">
-        <f>MOD(DC7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DD21" s="12">
-        <f>MOD(DD7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DE21" s="12">
-        <f>MOD(DE7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DF21" s="12">
-        <f>MOD(DF7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DG21" s="12">
-        <f>MOD(DG7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DH21" s="12">
-        <f>MOD(DH7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DI21" s="13">
-        <f>MOD(DI7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DJ21" s="11">
-        <f>MOD(DJ7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DK21" s="12">
-        <f>MOD(DK7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DL21" s="12">
-        <f>MOD(DL7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DM21" s="12">
-        <f>MOD(DM7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DN21" s="12">
-        <f>MOD(DN7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DO21" s="12">
-        <f>MOD(DO7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="DP21" s="12">
-        <f>MOD(DP7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="DQ21" s="13">
-        <f>MOD(DQ7,Nnbz)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6302,15 +6691,15 @@
         <v>49</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" ref="M23" si="6">M22+1</f>
+        <f t="shared" ref="M23" si="35">M22+1</f>
         <v>51</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="7">N22+1</f>
+        <f t="shared" ref="N23" si="36">N22+1</f>
         <v>73</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" ref="O23" si="8">O22+1</f>
+        <f t="shared" ref="O23" si="37">O22+1</f>
         <v>75</v>
       </c>
       <c r="R23" s="1"/>
@@ -6384,15 +6773,15 @@
         <v>57</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" ref="M25" si="9">M24+1</f>
+        <f t="shared" ref="M25" si="38">M24+1</f>
         <v>59</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" ref="N25" si="10">N24+1</f>
+        <f t="shared" ref="N25" si="39">N24+1</f>
         <v>81</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" ref="O25" si="11">O24+1</f>
+        <f t="shared" ref="O25" si="40">O24+1</f>
         <v>83</v>
       </c>
       <c r="R25" s="1"/>
@@ -6467,15 +6856,15 @@
         <v>65</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" ref="M27" si="12">M26+1</f>
+        <f t="shared" ref="M27" si="41">M26+1</f>
         <v>67</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="13">N26+1</f>
+        <f t="shared" ref="N27" si="42">N26+1</f>
         <v>89</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27" si="14">O26+1</f>
+        <f t="shared" ref="O27" si="43">O26+1</f>
         <v>91</v>
       </c>
       <c r="R27" s="1"/>
@@ -6597,19 +6986,19 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="15">L31+1</f>
+        <f t="shared" ref="L32" si="44">L31+1</f>
         <v>53</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32" si="16">M31+1</f>
+        <f t="shared" ref="M32" si="45">M31+1</f>
         <v>55</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32" si="17">N31+1</f>
+        <f t="shared" ref="N32" si="46">N31+1</f>
         <v>77</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32" si="18">O31+1</f>
+        <f t="shared" ref="O32" si="47">O31+1</f>
         <v>79</v>
       </c>
       <c r="R32" s="1"/>
@@ -6618,7 +7007,7 @@
       <c r="U32" s="20"/>
       <c r="V32" s="21"/>
     </row>
-    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K33" s="1">
         <v>2</v>
       </c>
@@ -6649,25 +7038,28 @@
         <v>10</v>
       </c>
       <c r="V33" s="3"/>
+      <c r="Z33" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K34" s="1">
         <v>3</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34" si="19">L33+1</f>
+        <f t="shared" ref="L34" si="48">L33+1</f>
         <v>61</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" ref="M34" si="20">M33+1</f>
+        <f t="shared" ref="M34" si="49">M33+1</f>
         <v>63</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" ref="N34" si="21">N33+1</f>
+        <f t="shared" ref="N34" si="50">N33+1</f>
         <v>85</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34" si="22">O33+1</f>
+        <f t="shared" ref="O34" si="51">O33+1</f>
         <v>87</v>
       </c>
       <c r="R34" s="1"/>
@@ -6675,8 +7067,72 @@
       <c r="T34" s="21"/>
       <c r="U34" s="20"/>
       <c r="V34" s="21"/>
+      <c r="Z34" s="25">
+        <f t="shared" ref="Z34:AO34" si="52">Z41*(Nnbx*Nnby*Nnbz)+Z49</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="26">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="AB34" s="26">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="AC34" s="26">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="AD34" s="26">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="AE34" s="26">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="AF34" s="26">
+        <f t="shared" si="52"/>
+        <v>6</v>
+      </c>
+      <c r="AG34" s="27">
+        <f t="shared" si="52"/>
+        <v>7</v>
+      </c>
+      <c r="AH34" s="25">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="AI34" s="26">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="AJ34" s="26">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="AK34" s="26">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="AL34" s="26">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="AM34" s="26">
+        <f t="shared" si="52"/>
+        <v>13</v>
+      </c>
+      <c r="AN34" s="26">
+        <f t="shared" si="52"/>
+        <v>14</v>
+      </c>
+      <c r="AO34" s="27">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K35" s="1">
         <v>4</v>
       </c>
@@ -6707,25 +7163,28 @@
         <v>11</v>
       </c>
       <c r="V35" s="3"/>
+      <c r="Z35" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K36" s="1">
         <v>5</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36" si="23">L35+1</f>
+        <f t="shared" ref="L36" si="53">L35+1</f>
         <v>69</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" ref="M36" si="24">M35+1</f>
+        <f t="shared" ref="M36" si="54">M35+1</f>
         <v>71</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" ref="N36" si="25">N35+1</f>
+        <f t="shared" ref="N36" si="55">N35+1</f>
         <v>93</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36" si="26">O35+1</f>
+        <f t="shared" ref="O36" si="56">O35+1</f>
         <v>95</v>
       </c>
       <c r="R36" s="1"/>
@@ -6733,14 +7192,706 @@
       <c r="T36" s="5"/>
       <c r="U36" s="20"/>
       <c r="V36" s="21"/>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:41" x14ac:dyDescent="0.25">
       <c r="Q37" s="28"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
       <c r="U37" s="28"/>
       <c r="V37" s="28"/>
+      <c r="Z37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>3</v>
+      </c>
+      <c r="AL38" s="12">
+        <v>2</v>
+      </c>
+      <c r="AM38" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z41" s="14">
+        <f t="shared" ref="Z41" si="57">Z44+Z43*Nbz+Z42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="15">
+        <f t="shared" ref="AA41" si="58">AA44+AA43*Nbz+AA42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="15">
+        <f t="shared" ref="AB41" si="59">AB44+AB43*Nbz+AB42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="15">
+        <f t="shared" ref="AC41" si="60">AC44+AC43*Nbz+AC42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="15">
+        <f t="shared" ref="AD41" si="61">AD44+AD43*Nbz+AD42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="15">
+        <f t="shared" ref="AE41" si="62">AE44+AE43*Nbz+AE42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="15">
+        <f t="shared" ref="AF41" si="63">AF44+AF43*Nbz+AF42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="15">
+        <f t="shared" ref="AG41" si="64">AG44+AG43*Nbz+AG42*Nby*Nbz</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="14">
+        <f t="shared" ref="AH41" si="65">AH44+AH43*Nbz+AH42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AI41" s="15">
+        <f t="shared" ref="AI41" si="66">AI44+AI43*Nbz+AI42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="15">
+        <f t="shared" ref="AJ41" si="67">AJ44+AJ43*Nbz+AJ42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AK41" s="15">
+        <f t="shared" ref="AK41" si="68">AK44+AK43*Nbz+AK42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AL41" s="15">
+        <f t="shared" ref="AL41" si="69">AL44+AL43*Nbz+AL42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AM41" s="15">
+        <f t="shared" ref="AM41" si="70">AM44+AM43*Nbz+AM42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AN41" s="15">
+        <f t="shared" ref="AN41" si="71">AN44+AN43*Nbz+AN42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+      <c r="AO41" s="16">
+        <f t="shared" ref="AO41" si="72">AO44+AO43*Nbz+AO42*Nby*Nbz</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="11:41" x14ac:dyDescent="0.25">
+      <c r="Z42" s="22">
+        <f t="shared" ref="Z42:AO42" si="73">INT(Z36/Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="22">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="23">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="11:41" x14ac:dyDescent="0.25">
+      <c r="Z43" s="22">
+        <f t="shared" ref="Z43:AO43" si="74">INT(Z37/Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="22">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="23">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z44" s="11">
+        <f t="shared" ref="Z44:AO44" si="75">INT(Z38/Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="11">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AK44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AM44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AN44" s="12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AO44" s="13">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="11:41" x14ac:dyDescent="0.25">
+      <c r="Z45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH45" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z48" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="26:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z49" s="14">
+        <f t="shared" ref="Z49" si="76">Z52+Z51*Nnbz+Z50*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="15">
+        <f t="shared" ref="AA49" si="77">AA52+AA51*Nnbz+AA50*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AB49" s="15">
+        <f t="shared" ref="AB49" si="78">AB52+AB51*Nnbz+AB50*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="AC49" s="15">
+        <f t="shared" ref="AC49" si="79">AC52+AC51*Nnbz+AC50*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="AD49" s="15">
+        <f t="shared" ref="AD49" si="80">AD52+AD51*Nnbz+AD50*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="AE49" s="15">
+        <f t="shared" ref="AE49" si="81">AE52+AE51*Nnbz+AE50*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="AF49" s="15">
+        <f t="shared" ref="AF49" si="82">AF52+AF51*Nnbz+AF50*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="AG49" s="16">
+        <f t="shared" ref="AG49" si="83">AG52+AG51*Nnbz+AG50*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+      <c r="AH49" s="14">
+        <f t="shared" ref="AH49" si="84">AH52+AH51*Nnbz+AH50*Nnbz*Nnby</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="15">
+        <f t="shared" ref="AI49" si="85">AI52+AI51*Nnbz+AI50*Nnbz*Nnby</f>
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="15">
+        <f t="shared" ref="AJ49" si="86">AJ52+AJ51*Nnbz+AJ50*Nnbz*Nnby</f>
+        <v>2</v>
+      </c>
+      <c r="AK49" s="15">
+        <f t="shared" ref="AK49" si="87">AK52+AK51*Nnbz+AK50*Nnbz*Nnby</f>
+        <v>3</v>
+      </c>
+      <c r="AL49" s="15">
+        <f t="shared" ref="AL49" si="88">AL52+AL51*Nnbz+AL50*Nnbz*Nnby</f>
+        <v>4</v>
+      </c>
+      <c r="AM49" s="15">
+        <f t="shared" ref="AM49" si="89">AM52+AM51*Nnbz+AM50*Nnbz*Nnby</f>
+        <v>5</v>
+      </c>
+      <c r="AN49" s="15">
+        <f t="shared" ref="AN49" si="90">AN52+AN51*Nnbz+AN50*Nnbz*Nnby</f>
+        <v>6</v>
+      </c>
+      <c r="AO49" s="16">
+        <f t="shared" ref="AO49" si="91">AO52+AO51*Nnbz+AO50*Nnbz*Nnby</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="26:41" x14ac:dyDescent="0.25">
+      <c r="Z50" s="22">
+        <f t="shared" ref="Z50:AO50" si="92">MOD(Z36,Nnbx)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AE50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AF50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AG50" s="24">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AH50" s="22">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="23">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AM50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AN50" s="23">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AO50" s="24">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="26:41" x14ac:dyDescent="0.25">
+      <c r="Z51" s="22">
+        <f t="shared" ref="Z51:AO51" si="93">MOD(Z37,Nnby)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AC51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AD51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AG51" s="24">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AH51" s="22">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AK51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AL51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="23">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="23">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AO51" s="24">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="26:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z52" s="11">
+        <f t="shared" ref="Z52:AO52" si="94">MOD(Z38,Nnbz)</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AB52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AD52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AF52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AH52" s="11">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AL52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AN52" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="13">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
